--- a/策划文档/数值策划/战斗系统.xlsx
+++ b/策划文档/数值策划/战斗系统.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="114">
   <si>
     <t>属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +524,12 @@
   </si>
   <si>
     <t>天选者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力公式=有效攻击*有效生命
+有效攻击=atk*(1+暴击率)+技能伤害/技能回合
+有效生命=hp*(def+res+2k)/2k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -848,6 +854,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -893,6 +902,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -918,8 +933,8 @@
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="13020675" cy="1685924"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1029,14 +1044,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>）</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>普攻可以产生暴击</a:t>
+                <a:t>）普攻可以产生暴击</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
             </a:p>
@@ -1727,7 +1735,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1837,14 +1845,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>）</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>普攻可以产生暴击</a:t>
+                <a:t>）普攻可以产生暴击</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
             </a:p>
@@ -2610,7 +2611,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="A21" sqref="A21:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2619,295 +2620,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="Q11" s="25" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="Q11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="28"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
@@ -2952,15 +2953,15 @@
       <c r="O12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="30"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="31"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -3005,15 +3006,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="30"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="31"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -3058,15 +3059,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="30"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="31"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -3115,15 +3116,15 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="30"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="31"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -3170,15 +3171,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="30"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="31"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
@@ -3223,15 +3224,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="30"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="31"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
@@ -3272,15 +3273,15 @@
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="30"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="31"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
@@ -3298,15 +3299,15 @@
       <c r="E19" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="30"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="31"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
@@ -3319,58 +3320,60 @@
       <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="30"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="31"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="A21" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="30"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="31"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="30"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="31"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="I23" s="3">
@@ -3391,23 +3394,23 @@
         <f>L23/(1-$J$23)</f>
         <v>1000</v>
       </c>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="30"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="31"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="9"/>
       <c r="I24" s="3">
         <v>1</v>
@@ -3427,22 +3430,22 @@
         <f t="shared" ref="M24:M43" si="4">L24/(1-$J$23)</f>
         <v>1010</v>
       </c>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="30"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="31"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="I25" s="17">
@@ -3463,22 +3466,22 @@
         <f t="shared" si="4"/>
         <v>1020</v>
       </c>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="30"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="31"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="I26" s="17">
@@ -3499,22 +3502,22 @@
         <f t="shared" si="4"/>
         <v>1030</v>
       </c>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="30"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="31"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="I27" s="17">
@@ -3535,22 +3538,22 @@
         <f t="shared" si="4"/>
         <v>1040</v>
       </c>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="30"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="31"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="I28" s="17">
@@ -3571,22 +3574,22 @@
         <f t="shared" si="4"/>
         <v>1050</v>
       </c>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="33"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="34"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="I29" s="17">
@@ -3609,11 +3612,11 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="I30" s="17">
@@ -3636,11 +3639,11 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="I31" s="17">
@@ -3663,11 +3666,11 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="I32" s="17">
@@ -3690,11 +3693,11 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="I33" s="17">
@@ -3717,11 +3720,11 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="I34" s="17">
@@ -4077,10 +4080,11 @@
       <c r="G53" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="G1:Y10"/>
     <mergeCell ref="Q11:Y28"/>
     <mergeCell ref="A1:F11"/>
+    <mergeCell ref="A21:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4095,7 +4099,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4130,13 +4134,13 @@
         <v>95</v>
       </c>
       <c r="I1" s="13"/>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
@@ -6413,13 +6417,13 @@
       <c r="H1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -6437,11 +6441,11 @@
       <c r="H2" s="19">
         <v>67</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
@@ -6478,11 +6482,11 @@
       <c r="L3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B4" s="16"/>
@@ -6522,50 +6526,50 @@
         <f ca="1">$H$4/(1-J$4)</f>
         <v>3447.15</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B5" s="16"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B6" s="16"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B7" s="16"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B8" s="16"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/策划文档/数值策划/战斗系统.xlsx
+++ b/策划文档/数值策划/战斗系统.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="116">
   <si>
     <t>属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,45 +68,6 @@
   </si>
   <si>
     <t>有效生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>在现有资源下分配有效攻击和有效生命保持战斗力平衡：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-战斗力=有效攻击*有效生命：F=ATK*HP*(1-a)*(1+b)
-a:有效攻击变化率，b:有效生命变化率
-1-a=1/(1+b)，a=b/(1+b)
-设定战斗基本回合5回合,则ATK*5=HP
-有效攻击变化值Atk与有效生命变化值Hp
-Atk=ATK*a，Hp=HP*b
-Hp/Atk=5*（1+b)
-可见有效攻击和有效生命互换的比率跟换算值占原值的比率b有线性关系，又加点系统互换比率保持在某一设定常数，所以属性加点系统的平衡随着加点带来的加成变多而会逐渐偏离设定平衡。
-则我们可以这样来设计加点玩法：
-1、若加点属性带来的属性值占基础数值的比率b变化范围在0-1之间
-2、设定基本比率为0-1之间偏中间的一个值
-3、则加点前期有效攻击偏重加点会带来战斗力最大化
-4、慢慢趋近于加点平均
-5、后期趋近于偏重有效生命加点</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,72 +425,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>力量成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质成长</t>
+    <t>天神系</t>
+  </si>
+  <si>
+    <t>天神系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天魔系</t>
+  </si>
+  <si>
+    <t>天魔系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻妖系</t>
+  </si>
+  <si>
+    <t>幻妖系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修罗系</t>
+  </si>
+  <si>
+    <t>修罗系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天选者</t>
+  </si>
+  <si>
+    <t>天选者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在现有资源下分配有效攻击和有效生命保持战斗力平衡：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+战斗力=有效攻击*有效生命：F=ATK*HP*(1-a)*(1+b)
+a:有效攻击变化率，b:有效生命变化率
+1-a=1/(1+b)，a=b/(1+b)
+设定战斗基本回合10回合,则ATK*10=HP
+有效攻击变化值Atk与有效生命变化值Hp
+Atk=ATK*a，Hp=HP*b
+Hp/Atk=10*（1+b)
+可见有效攻击和有效生命互换的比率跟换算值占原值的比率b有线性关系，又加点系统互换比率保持在某一设定常数，所以属性加点系统的平衡随着加点带来的加成变多而会逐渐偏离设定平衡。
+则我们可以这样来设计加点玩法：
+1、若加点属性带来的属性值占基础数值的比率b变化范围在0-1之间
+2、设定基本比率为0-1之间偏中间的一个值
+3、则加点前期有效攻击偏重加点会带来战斗力最大化
+4、慢慢趋近于加点平均
+5、后期趋近于偏重有效生命加点</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>敏捷=X，体质=Y，成长系数相同的情况下
 初始护甲=DEF,初始血量=HP，X+Y=A常数时
-则有效血量的在最大值时(K为常数设定200)：
-X=(16A+HP-DEF-K)/6
+则有效血量的在最大值时(K为常数设定500)：
+敏捷=a点护甲，体质=b点血量
+护甲=a*X+DEF，血量=b*Y+HP
+有效血量=(b*Y+HP)/[1-a*X+DEF/(a*X+DEF+K)]求最大值
+X=(a*b*A-b*（DEF+K）+a*HP)/（2a*b）
 Y=A-X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天神系</t>
-  </si>
-  <si>
-    <t>天神系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天魔系</t>
-  </si>
-  <si>
-    <t>天魔系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻妖系</t>
-  </si>
-  <si>
-    <t>幻妖系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修罗系</t>
-  </si>
-  <si>
-    <t>修罗系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天选者</t>
-  </si>
-  <si>
-    <t>天选者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗力公式=有效攻击*有效生命
-有效攻击=atk*(1+暴击率)+技能伤害/技能回合
-有效生命=hp*(def+res+2k)/2k</t>
+    <t>初始暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力系数</t>
+  </si>
+  <si>
+    <t>敏捷系数</t>
+  </si>
+  <si>
+    <t>精神系数</t>
+  </si>
+  <si>
+    <t>体质系数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">战斗力公式=有效攻击*有效生命
+有效攻击=攻击*[1+（暴伤-1)*暴击率]+物理伤害/(技能能量/普攻恢复能量)+法术伤害/(技能能量/普攻恢复能量)+真实伤害
+有效生命=生命*(护甲+魔抗+2K)/2K
+根据技能伤害类型确定是物理伤害、法术伤害
+其值等于=技能基值+攻击加成*攻击+法术加成*法术+生命加成*生命
+技能能量/普攻恢复能量=定值M(不同技能M不同)
+把战斗力公式分别对攻击、法术、护甲、魔抗、生命、暴击求导
+攻击导数=（1+暴击率+攻击加成/M)*生命*（护甲+魔抗+2K）/2K
+法术导数=法术加成/M*生命*（护甲+魔抗+2K)/2K
+护甲导数=[（M+M*暴击率+攻击加成)*攻击+技能基值+法术加成*法术+生命加成*生命+真实伤害]/M*生命/2K
+魔抗导数=[（M+M*暴击率+攻击加成)*攻击+技能基值+法术加成*法术+生命加成*生命+真实伤害]/M*生命/2K
+生命导数=[（M+M*暴击率+攻击加成)*攻击+技能基值+法术加成*法术+真实伤害+2*生命加成*生命]/M*（护甲+魔抗+2K）/2K
+暴击导数=攻击*生命*（护甲+魔抗+2K）/2K
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +555,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +634,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="华文新魏"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="华文新魏"/>
       <family val="3"/>
       <charset val="134"/>
@@ -780,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -854,9 +879,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -899,14 +921,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -933,8 +952,8 @@
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="13020675" cy="1685924"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1735,7 +1754,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -2611,7 +2630,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:E34"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2620,295 +2639,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
+      <c r="A1" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="Q11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="28"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="Q11" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="27"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
@@ -2953,22 +2972,22 @@
       <c r="O12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="31"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="30"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2976,7 +2995,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="1">
         <f>(B13+C13)*0.8</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1">
         <f>(D13+E13)*$D$19/$A$19+F13/(1-$E$19)</f>
@@ -3006,15 +3025,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="31"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="30"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -3022,14 +3041,14 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
         <f>(B14+C14)*0.8</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H14" s="1">
         <f>(D14+E14)*$D$19/$A$19+F14/(1-$E$19)</f>
@@ -3059,15 +3078,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="31"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="30"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -3076,12 +3095,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>4</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="1">
         <f t="shared" ref="G15:G17" si="1">(B15+C15)*0.8</f>
         <v>0</v>
@@ -3090,9 +3107,7 @@
         <f>(D15+E15)*$D$19/$A$19+F15/(1-$E$19)</f>
         <v>20</v>
       </c>
-      <c r="I15" s="6">
-        <v>150</v>
-      </c>
+      <c r="I15" s="6"/>
       <c r="J15" s="1" t="s">
         <v>3</v>
       </c>
@@ -3106,7 +3121,7 @@
       </c>
       <c r="M15" s="1">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="0"/>
@@ -3114,17 +3129,17 @@
       </c>
       <c r="O15" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="30"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -3134,11 +3149,9 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3171,15 +3184,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="31"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="30"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
@@ -3190,7 +3203,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
@@ -3198,9 +3211,11 @@
       </c>
       <c r="H17" s="1">
         <f>(D17+E17)*$D$19/$A$19+F17/(1-$E$19)</f>
-        <v>20</v>
-      </c>
-      <c r="I17" s="7"/>
+        <v>37.5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>150</v>
+      </c>
       <c r="J17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3222,36 +3237,36 @@
       </c>
       <c r="O17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="31"/>
+        <v>4500</v>
+      </c>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="30"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="K18" s="5">
         <f>SUM(K13:K17)</f>
@@ -3263,7 +3278,7 @@
       </c>
       <c r="M18" s="5">
         <f t="shared" si="2"/>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="2"/>
@@ -3271,21 +3286,21 @@
       </c>
       <c r="O18" s="5">
         <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="31"/>
+        <v>4500</v>
+      </c>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="30"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="B19" s="4">
         <v>30</v>
@@ -3294,20 +3309,20 @@
         <v>5</v>
       </c>
       <c r="D19" s="4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E19" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="31"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="30"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
@@ -3320,62 +3335,65 @@
       <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="31"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A21" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="31"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="31"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="30"/>
+    </row>
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="30"/>
+    </row>
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="30"/>
+    </row>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -3394,24 +3412,25 @@
         <f>L23/(1-$J$23)</f>
         <v>1000</v>
       </c>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="31"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="9"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="30"/>
+    </row>
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="3">
         <v>1</v>
       </c>
@@ -3430,24 +3449,25 @@
         <f t="shared" ref="M24:M43" si="4">L24/(1-$J$23)</f>
         <v>1010</v>
       </c>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="31"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="30"/>
+    </row>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="17">
         <v>2</v>
       </c>
@@ -3466,24 +3486,25 @@
         <f t="shared" si="4"/>
         <v>1020</v>
       </c>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="31"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="30"/>
+    </row>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="17">
         <v>3</v>
       </c>
@@ -3502,24 +3523,25 @@
         <f t="shared" si="4"/>
         <v>1030</v>
       </c>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="31"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="30"/>
+    </row>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="17">
         <v>4</v>
       </c>
@@ -3538,24 +3560,25 @@
         <f t="shared" si="4"/>
         <v>1040</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="31"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="30"/>
+    </row>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="17">
         <v>5</v>
       </c>
@@ -3574,24 +3597,25 @@
         <f t="shared" si="4"/>
         <v>1050</v>
       </c>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="34"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="33"/>
+    </row>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
       <c r="I29" s="17">
         <v>6</v>
       </c>
@@ -3611,14 +3635,15 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="17">
         <v>7</v>
       </c>
@@ -3638,14 +3663,15 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="17">
         <v>8</v>
       </c>
@@ -3665,14 +3691,15 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="17">
         <v>9</v>
       </c>
@@ -3692,14 +3719,15 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="17">
         <v>10</v>
       </c>
@@ -3719,14 +3747,15 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+    <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="17">
         <v>11</v>
       </c>
@@ -3747,13 +3776,14 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="17">
         <v>12</v>
       </c>
@@ -3774,13 +3804,14 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="17">
         <v>13</v>
       </c>
@@ -3801,13 +3832,14 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="17">
         <v>14</v>
       </c>
@@ -3828,13 +3860,14 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="17">
         <v>15</v>
       </c>
@@ -3855,13 +3888,14 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="17">
         <v>16</v>
       </c>
@@ -3882,13 +3916,14 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
       <c r="I40" s="17">
         <v>17</v>
       </c>
@@ -3909,13 +3944,14 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="17">
         <v>18</v>
       </c>
@@ -3936,13 +3972,14 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="17">
         <v>19</v>
       </c>
@@ -3963,13 +4000,14 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="17">
         <v>20</v>
       </c>
@@ -4084,7 +4122,7 @@
     <mergeCell ref="G1:Y10"/>
     <mergeCell ref="Q11:Y28"/>
     <mergeCell ref="A1:F11"/>
-    <mergeCell ref="A21:E34"/>
+    <mergeCell ref="A21:H43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4099,7 +4137,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4110,50 +4148,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="E1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -4161,22 +4199,22 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="23" t="s">
-        <v>62</v>
-      </c>
       <c r="N2" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
@@ -4184,13 +4222,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -4201,19 +4239,19 @@
         <v>1</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
@@ -4221,13 +4259,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -4238,19 +4276,19 @@
         <v>2</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
@@ -4258,13 +4296,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -4275,19 +4313,19 @@
         <v>3</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
@@ -4298,10 +4336,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -4312,19 +4350,19 @@
         <v>4</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
@@ -4332,13 +4370,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4349,19 +4387,19 @@
         <v>5</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
@@ -4369,13 +4407,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -4393,13 +4431,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -4417,13 +4455,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -4444,10 +4482,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -4465,13 +4503,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -4489,13 +4527,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -4510,13 +4548,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4531,13 +4569,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4555,10 +4593,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -4573,13 +4611,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -4594,13 +4632,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -4615,13 +4653,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -4636,13 +4674,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -4660,10 +4698,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -4678,13 +4716,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E22" s="13"/>
     </row>
@@ -4693,13 +4731,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E23" s="13"/>
     </row>
@@ -4708,13 +4746,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E24" s="13"/>
     </row>
@@ -4723,13 +4761,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E25" s="13"/>
     </row>
@@ -4741,10 +4779,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E26" s="13"/>
     </row>
@@ -4763,10 +4801,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -4776,107 +4814,113 @@
     <col min="14" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="14" t="s">
+      <c r="X1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D2" s="13">
         <v>1</v>
@@ -4891,87 +4935,95 @@
         <v>1</v>
       </c>
       <c r="H2" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" s="13">
         <v>0</v>
       </c>
       <c r="J2" s="13">
-        <v>3</v>
-      </c>
-      <c r="K2" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
       <c r="L2" s="13">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M2" s="13">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N2" s="13">
         <v>0</v>
       </c>
       <c r="O2" s="13">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="P2" s="13">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="13">
-        <v>900</v>
-      </c>
-      <c r="R2" s="15">
+        <v>1800</v>
+      </c>
+      <c r="R2" s="13">
+        <v>0</v>
+      </c>
+      <c r="S2" s="39">
+        <v>2</v>
+      </c>
+      <c r="T2" s="15">
         <f>O2/(O2+战斗公式!$A$19)</f>
         <v>0.2</v>
       </c>
-      <c r="S2" s="15">
+      <c r="U2" s="15">
         <f>P2/(P2+战斗公式!$A$19)</f>
-        <v>0.18367346938775511</v>
-      </c>
-      <c r="T2" s="11">
-        <f>MAX(M2*($Q2/(1-$R2)),N2*($Q2/(1-$R2)))</f>
-        <v>67500</v>
-      </c>
-      <c r="U2" s="11">
-        <f>MAX(M2*($Q2/(1-$S2)),N2*($Q2/(1-$S2)))</f>
-        <v>66150</v>
-      </c>
-      <c r="V2" s="18">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="V2" s="11">
+        <f>MAX(M2*($Q2/(1-$T2)),N2*($Q2/(1-$T2)))</f>
+        <v>270000</v>
+      </c>
+      <c r="W2" s="11">
+        <f>MAX(M2*($Q2/(1-$U2)),N2*($Q2/(1-$U2)))</f>
+        <v>259200</v>
+      </c>
+      <c r="X2" s="18">
         <f>M2+H2*战斗公式!$B$19</f>
-        <v>150</v>
-      </c>
-      <c r="W2" s="18">
+        <v>270</v>
+      </c>
+      <c r="Y2" s="18">
         <f>N2+I2*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X2" s="18">
+      <c r="Z2" s="18">
         <f>O2+J2*战斗公式!$B$19</f>
-        <v>140</v>
-      </c>
-      <c r="Y2" s="18">
+        <v>245</v>
+      </c>
+      <c r="AA2" s="18">
         <f>P2+K2*战斗公式!$B$19</f>
-        <v>45</v>
-      </c>
-      <c r="Z2" s="18">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="18">
         <f>Q2+L2*战斗公式!$B$19</f>
-        <v>1350</v>
-      </c>
-      <c r="AA2" s="15">
-        <f>X2/(X2+战斗公式!$A$19)</f>
-        <v>0.41176470588235292</v>
-      </c>
-      <c r="AB2" s="15">
-        <f>Y2/(Y2+战斗公式!$A$19)</f>
-        <v>0.18367346938775511</v>
-      </c>
-      <c r="AC2" s="11">
-        <f>MAX(V2*($Z2/(1-$AA2)),W2*($Z2/(1-$AA2)))</f>
-        <v>344250</v>
-      </c>
-      <c r="AD2" s="11">
-        <f>MAX(W2*($Z2/(1-$AA2)),X2*($Z2/(1-$AA2)))</f>
-        <v>321300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+        <v>2700</v>
+      </c>
+      <c r="AC2" s="15">
+        <f>Z2/(Z2+战斗公式!$A$19)</f>
+        <v>0.32885906040268459</v>
+      </c>
+      <c r="AD2" s="15">
+        <f>AA2/(AA2+战斗公式!$A$19)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AE2" s="11">
+        <f>MAX(X2*($AB2/(1-$AC2)),Y2*($AB2/(1-$AC2)))</f>
+        <v>1086210.0000000002</v>
+      </c>
+      <c r="AF2" s="11">
+        <f>MAX(X2*($AB2/(1-$AD2)),Y2*($AB2/(1-$AD2)))</f>
+        <v>874800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4991,60 +5043,62 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="15">
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="15">
         <f>O3/(O3+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="15">
+      <c r="U3" s="15">
         <f>P3/(P3+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="11">
-        <f t="shared" ref="T3:T21" si="0">MAX(M3*($Q3/(1-$R3)),N3*($Q3/(1-$R3)))</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="11">
-        <f t="shared" ref="U3:U21" si="1">MAX(M3*($Q3/(1-$S3)),N3*($Q3/(1-$S3)))</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="18">
+      <c r="V3" s="11">
+        <f t="shared" ref="V3:V21" si="0">MAX(M3*($Q3/(1-$T3)),N3*($Q3/(1-$T3)))</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="11">
+        <f t="shared" ref="W3:W21" si="1">MAX(M3*($Q3/(1-$U3)),N3*($Q3/(1-$U3)))</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="18">
         <f>M3+H3*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W3" s="18">
+      <c r="Y3" s="18">
         <f>N3+I3*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X3" s="18">
+      <c r="Z3" s="18">
         <f>O3+J3*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="AA3" s="18">
         <f>P3+K3*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="18">
+      <c r="AB3" s="18">
         <f>Q3+L3*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="15">
-        <f>X3/(X3+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="15">
-        <f>Y3/(Y3+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="11">
-        <f t="shared" ref="AC3:AC21" si="2">MAX(V3*($Z3/(1-$AA3)),W3*($Z3/(1-$AA3)))</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="11">
-        <f t="shared" ref="AD3:AD21" si="3">MAX(W3*($Z3/(1-$AA3)),X3*($Z3/(1-$AA3)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC3" s="15">
+        <f>Z3/(Z3+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="15">
+        <f>AA3/(AA3+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="11">
+        <f t="shared" ref="AE3:AE21" si="2">MAX(X3*($AB3/(1-$AC3)),Y3*($AB3/(1-$AC3)))</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="11">
+        <f t="shared" ref="AF3:AF21" si="3">MAX(Y3*($AB3/(1-$AC3)),Z3*($AB3/(1-$AC3)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -5064,60 +5118,62 @@
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
-      <c r="R4" s="15">
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="15">
         <f>O4/(O4+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="15">
+      <c r="U4" s="15">
         <f>P4/(P4+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="11">
+      <c r="V4" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U4" s="11">
+      <c r="W4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V4" s="18">
+      <c r="X4" s="18">
         <f>M4+H4*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W4" s="18">
+      <c r="Y4" s="18">
         <f>N4+I4*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X4" s="18">
+      <c r="Z4" s="18">
         <f>O4+J4*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="AA4" s="18">
         <f>P4+K4*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="AB4" s="18">
         <f>Q4+L4*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="15">
-        <f>X4/(X4+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="15">
-        <f>Y4/(Y4+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="11">
+      <c r="AC4" s="15">
+        <f>Z4/(Z4+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="15">
+        <f>AA4/(AA4+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="11">
+      <c r="AF4" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -5137,60 +5193,62 @@
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
-      <c r="R5" s="15">
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="15">
         <f>O5/(O5+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="15">
+      <c r="U5" s="15">
         <f>P5/(P5+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="11">
+      <c r="V5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U5" s="11">
+      <c r="W5" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V5" s="18">
+      <c r="X5" s="18">
         <f>M5+H5*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W5" s="18">
+      <c r="Y5" s="18">
         <f>N5+I5*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X5" s="18">
+      <c r="Z5" s="18">
         <f>O5+J5*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="AA5" s="18">
         <f>P5+K5*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="AB5" s="18">
         <f>Q5+L5*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="15">
-        <f>X5/(X5+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="15">
-        <f>Y5/(Y5+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="11">
+      <c r="AC5" s="15">
+        <f>Z5/(Z5+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="15">
+        <f>AA5/(AA5+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AF5" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -5210,60 +5268,62 @@
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="15">
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="15">
         <f>O6/(O6+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="15">
+      <c r="U6" s="15">
         <f>P6/(P6+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="11">
+      <c r="V6" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U6" s="11">
+      <c r="W6" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="18">
+      <c r="X6" s="18">
         <f>M6+H6*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W6" s="18">
+      <c r="Y6" s="18">
         <f>N6+I6*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X6" s="18">
+      <c r="Z6" s="18">
         <f>O6+J6*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="AA6" s="18">
         <f>P6+K6*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="AB6" s="18">
         <f>Q6+L6*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="15">
-        <f>X6/(X6+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="15">
-        <f>Y6/(Y6+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="11">
+      <c r="AC6" s="15">
+        <f>Z6/(Z6+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="15">
+        <f>AA6/(AA6+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="11">
+      <c r="AF6" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -5283,60 +5343,62 @@
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="15">
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="15">
         <f>O7/(O7+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="15">
+      <c r="U7" s="15">
         <f>P7/(P7+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="11">
+      <c r="V7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U7" s="11">
+      <c r="W7" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V7" s="18">
+      <c r="X7" s="18">
         <f>M7+H7*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W7" s="18">
+      <c r="Y7" s="18">
         <f>N7+I7*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X7" s="18">
+      <c r="Z7" s="18">
         <f>O7+J7*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="AA7" s="18">
         <f>P7+K7*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="AB7" s="18">
         <f>Q7+L7*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="15">
-        <f>X7/(X7+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="15">
-        <f>Y7/(Y7+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="11">
+      <c r="AC7" s="15">
+        <f>Z7/(Z7+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="15">
+        <f>AA7/(AA7+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="11">
+      <c r="AF7" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -5356,60 +5418,62 @@
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="15">
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="15">
         <f>O8/(O8+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="15">
+      <c r="U8" s="15">
         <f>P8/(P8+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="11">
+      <c r="V8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U8" s="11">
+      <c r="W8" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V8" s="18">
+      <c r="X8" s="18">
         <f>M8+H8*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W8" s="18">
+      <c r="Y8" s="18">
         <f>N8+I8*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X8" s="18">
+      <c r="Z8" s="18">
         <f>O8+J8*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="AA8" s="18">
         <f>P8+K8*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="AB8" s="18">
         <f>Q8+L8*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="15">
-        <f>X8/(X8+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="15">
-        <f>Y8/(Y8+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="11">
+      <c r="AC8" s="15">
+        <f>Z8/(Z8+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="15">
+        <f>AA8/(AA8+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="11">
+      <c r="AF8" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -5429,60 +5493,62 @@
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
-      <c r="R9" s="15">
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="15">
         <f>O9/(O9+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="15">
+      <c r="U9" s="15">
         <f>P9/(P9+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="18">
+      <c r="V9" s="11">
+        <f>MAX(M9*($Q9/(1-$T9)),N9*($Q9/(1-$T9)))</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="11">
+        <f>MAX(M9*($Q9/(1-$U9)),N9*($Q9/(1-$U9)))</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="18">
         <f>M9+H9*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W9" s="18">
+      <c r="Y9" s="18">
         <f>N9+I9*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X9" s="18">
+      <c r="Z9" s="18">
         <f>O9+J9*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="AA9" s="18">
         <f>P9+K9*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="AB9" s="18">
         <f>Q9+L9*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="15">
-        <f>X9/(X9+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="15">
-        <f>Y9/(Y9+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="11">
+      <c r="AC9" s="15">
+        <f>Z9/(Z9+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="15">
+        <f>AA9/(AA9+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="11">
+      <c r="AF9" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -5502,60 +5568,62 @@
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
-      <c r="R10" s="15">
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="15">
         <f>O10/(O10+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="15">
+      <c r="U10" s="15">
         <f>P10/(P10+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="18">
+      <c r="V10" s="11">
+        <f>MAX(M10*($Q10/(1-$T10)),N10*($Q10/(1-$T10)))</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="11">
+        <f>MAX(M10*($Q10/(1-$U10)),N10*($Q10/(1-$U10)))</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="18">
         <f>M10+H10*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W10" s="18">
+      <c r="Y10" s="18">
         <f>N10+I10*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X10" s="18">
+      <c r="Z10" s="18">
         <f>O10+J10*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="AA10" s="18">
         <f>P10+K10*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="AB10" s="18">
         <f>Q10+L10*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="15">
-        <f>X10/(X10+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="15">
-        <f>Y10/(Y10+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="11">
+      <c r="AC10" s="15">
+        <f>Z10/(Z10+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="15">
+        <f>AA10/(AA10+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AF10" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5575,60 +5643,62 @@
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="15">
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="15">
         <f>O11/(O11+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="15">
+      <c r="U11" s="15">
         <f>P11/(P11+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="11">
+      <c r="V11" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="11">
+      <c r="W11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="18">
+      <c r="X11" s="18">
         <f>M11+H11*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W11" s="18">
+      <c r="Y11" s="18">
         <f>N11+I11*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X11" s="18">
+      <c r="Z11" s="18">
         <f>O11+J11*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="AA11" s="18">
         <f>P11+K11*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="18">
+      <c r="AB11" s="18">
         <f>Q11+L11*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="15">
-        <f>X11/(X11+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="15">
-        <f>Y11/(Y11+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="11">
+      <c r="AC11" s="15">
+        <f>Z11/(Z11+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="15">
+        <f>AA11/(AA11+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="11">
+      <c r="AF11" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -5648,60 +5718,62 @@
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="15">
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="15">
         <f>O12/(O12+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="15">
+      <c r="U12" s="15">
         <f>P12/(P12+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="11">
+      <c r="V12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U12" s="11">
+      <c r="W12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="18">
+      <c r="X12" s="18">
         <f>M12+H12*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W12" s="18">
+      <c r="Y12" s="18">
         <f>N12+I12*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X12" s="18">
+      <c r="Z12" s="18">
         <f>O12+J12*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="AA12" s="18">
         <f>P12+K12*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="AB12" s="18">
         <f>Q12+L12*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="15">
-        <f>X12/(X12+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="15">
-        <f>Y12/(Y12+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="11">
+      <c r="AC12" s="15">
+        <f>Z12/(Z12+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="15">
+        <f>AA12/(AA12+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="11">
+      <c r="AF12" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -5721,60 +5793,62 @@
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
-      <c r="R13" s="15">
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="15">
         <f>O13/(O13+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="15">
+      <c r="U13" s="15">
         <f>P13/(P13+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="11">
+      <c r="V13" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U13" s="11">
+      <c r="W13" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V13" s="18">
+      <c r="X13" s="18">
         <f>M13+H13*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W13" s="18">
+      <c r="Y13" s="18">
         <f>N13+I13*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X13" s="18">
+      <c r="Z13" s="18">
         <f>O13+J13*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="AA13" s="18">
         <f>P13+K13*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="AB13" s="18">
         <f>Q13+L13*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="15">
-        <f>X13/(X13+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="15">
-        <f>Y13/(Y13+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="11">
+      <c r="AC13" s="15">
+        <f>Z13/(Z13+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="15">
+        <f>AA13/(AA13+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="11">
+      <c r="AF13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -5794,60 +5868,62 @@
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
-      <c r="R14" s="15">
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="15">
         <f>O14/(O14+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="15">
+      <c r="U14" s="15">
         <f>P14/(P14+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="11">
+      <c r="V14" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U14" s="11">
+      <c r="W14" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="18">
+      <c r="X14" s="18">
         <f>M14+H14*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W14" s="18">
+      <c r="Y14" s="18">
         <f>N14+I14*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X14" s="18">
+      <c r="Z14" s="18">
         <f>O14+J14*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="18">
+      <c r="AA14" s="18">
         <f>P14+K14*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="AB14" s="18">
         <f>Q14+L14*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="15">
-        <f>X14/(X14+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="15">
-        <f>Y14/(Y14+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="11">
+      <c r="AC14" s="15">
+        <f>Z14/(Z14+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="15">
+        <f>AA14/(AA14+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="11">
+      <c r="AF14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -5867,60 +5943,62 @@
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
-      <c r="R15" s="15">
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="15">
         <f>O15/(O15+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="15">
+      <c r="U15" s="15">
         <f>P15/(P15+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="11">
+      <c r="V15" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U15" s="11">
+      <c r="W15" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V15" s="18">
+      <c r="X15" s="18">
         <f>M15+H15*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W15" s="18">
+      <c r="Y15" s="18">
         <f>N15+I15*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X15" s="18">
+      <c r="Z15" s="18">
         <f>O15+J15*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="18">
+      <c r="AA15" s="18">
         <f>P15+K15*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="18">
+      <c r="AB15" s="18">
         <f>Q15+L15*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="15">
-        <f>X15/(X15+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="15">
-        <f>Y15/(Y15+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="11">
+      <c r="AC15" s="15">
+        <f>Z15/(Z15+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="15">
+        <f>AA15/(AA15+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="11">
+      <c r="AF15" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -5940,60 +6018,62 @@
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
-      <c r="R16" s="15">
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="15">
         <f>O16/(O16+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="15">
+      <c r="U16" s="15">
         <f>P16/(P16+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="11">
+      <c r="V16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U16" s="11">
+      <c r="W16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V16" s="18">
+      <c r="X16" s="18">
         <f>M16+H16*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W16" s="18">
+      <c r="Y16" s="18">
         <f>N16+I16*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X16" s="18">
+      <c r="Z16" s="18">
         <f>O16+J16*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="AA16" s="18">
         <f>P16+K16*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="18">
+      <c r="AB16" s="18">
         <f>Q16+L16*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="15">
-        <f>X16/(X16+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="15">
-        <f>Y16/(Y16+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="11">
+      <c r="AC16" s="15">
+        <f>Z16/(Z16+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="15">
+        <f>AA16/(AA16+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="11">
+      <c r="AF16" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -6013,60 +6093,62 @@
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
-      <c r="R17" s="15">
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="15">
         <f>O17/(O17+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="15">
+      <c r="U17" s="15">
         <f>P17/(P17+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="11">
+      <c r="V17" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U17" s="11">
+      <c r="W17" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V17" s="18">
+      <c r="X17" s="18">
         <f>M17+H17*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W17" s="18">
+      <c r="Y17" s="18">
         <f>N17+I17*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X17" s="18">
+      <c r="Z17" s="18">
         <f>O17+J17*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="18">
+      <c r="AA17" s="18">
         <f>P17+K17*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="18">
+      <c r="AB17" s="18">
         <f>Q17+L17*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="15">
-        <f>X17/(X17+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="15">
-        <f>Y17/(Y17+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="11">
+      <c r="AC17" s="15">
+        <f>Z17/(Z17+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="15">
+        <f>AA17/(AA17+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="11">
+      <c r="AF17" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -6086,60 +6168,62 @@
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
-      <c r="R18" s="15">
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="15">
         <f>O18/(O18+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="15">
+      <c r="U18" s="15">
         <f>P18/(P18+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T18" s="11">
+      <c r="V18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U18" s="11">
+      <c r="W18" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="18">
+      <c r="X18" s="18">
         <f>M18+H18*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W18" s="18">
+      <c r="Y18" s="18">
         <f>N18+I18*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X18" s="18">
+      <c r="Z18" s="18">
         <f>O18+J18*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="AA18" s="18">
         <f>P18+K18*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="AB18" s="18">
         <f>Q18+L18*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA18" s="15">
-        <f>X18/(X18+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="15">
-        <f>Y18/(Y18+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="11">
+      <c r="AC18" s="15">
+        <f>Z18/(Z18+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="15">
+        <f>AA18/(AA18+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="11">
+      <c r="AF18" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -6159,60 +6243,62 @@
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="15">
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="15">
         <f>O19/(O19+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S19" s="15">
+      <c r="U19" s="15">
         <f>P19/(P19+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="11">
+      <c r="V19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U19" s="11">
+      <c r="W19" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V19" s="18">
+      <c r="X19" s="18">
         <f>M19+H19*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W19" s="18">
+      <c r="Y19" s="18">
         <f>N19+I19*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X19" s="18">
+      <c r="Z19" s="18">
         <f>O19+J19*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y19" s="18">
+      <c r="AA19" s="18">
         <f>P19+K19*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="18">
+      <c r="AB19" s="18">
         <f>Q19+L19*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA19" s="15">
-        <f>X19/(X19+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="15">
-        <f>Y19/(Y19+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="11">
+      <c r="AC19" s="15">
+        <f>Z19/(Z19+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="15">
+        <f>AA19/(AA19+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="11">
+      <c r="AF19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -6232,60 +6318,62 @@
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
-      <c r="R20" s="15">
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="15">
         <f>O20/(O20+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S20" s="15">
+      <c r="U20" s="15">
         <f>P20/(P20+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="11">
+      <c r="V20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U20" s="11">
+      <c r="W20" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V20" s="18">
+      <c r="X20" s="18">
         <f>M20+H20*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W20" s="18">
+      <c r="Y20" s="18">
         <f>N20+I20*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X20" s="18">
+      <c r="Z20" s="18">
         <f>O20+J20*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="AA20" s="18">
         <f>P20+K20*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="AB20" s="18">
         <f>Q20+L20*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="15">
-        <f>X20/(X20+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="15">
-        <f>Y20/(Y20+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="11">
+      <c r="AC20" s="15">
+        <f>Z20/(Z20+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="15">
+        <f>AA20/(AA20+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="11">
+      <c r="AF20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -6305,55 +6393,57 @@
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
-      <c r="R21" s="15">
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="15">
         <f>O21/(O21+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="15">
+      <c r="U21" s="15">
         <f>P21/(P21+战斗公式!$A$19)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="11">
+      <c r="V21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U21" s="11">
+      <c r="W21" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V21" s="18">
+      <c r="X21" s="18">
         <f>M21+H21*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="W21" s="18">
+      <c r="Y21" s="18">
         <f>N21+I21*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="X21" s="18">
+      <c r="Z21" s="18">
         <f>O21+J21*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="18">
+      <c r="AA21" s="18">
         <f>P21+K21*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="18">
+      <c r="AB21" s="18">
         <f>Q21+L21*战斗公式!$B$19</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="15">
-        <f>X21/(X21+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="15">
-        <f>Y21/(Y21+战斗公式!$A$19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="11">
+      <c r="AC21" s="15">
+        <f>Z21/(Z21+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="15">
+        <f>AA21/(AA21+战斗公式!$A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="11">
+      <c r="AF21" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6382,10 +6472,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6395,185 +6485,224 @@
     <col min="12" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="20">
         <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="O1" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="20">
         <v>30</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="19">
-        <v>98</v>
-      </c>
+      <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="19">
-        <v>67</v>
-      </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H2" s="19"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="19">
         <f>B2*战斗公式!$C$19</f>
         <v>150</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="I3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B4" s="16"/>
       <c r="D4" s="19">
-        <f ca="1">$D$2*战斗公式!B$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!B$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!B$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!B$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!B$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!V$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
-        <v>150</v>
+        <f ca="1">$D$2*战斗公式!B$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!B$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!B$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!B$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!B$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!X$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
+        <v>270</v>
       </c>
       <c r="E4" s="19">
-        <f ca="1">$D$2*战斗公式!C$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!C$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!C$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!C$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!C$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!W$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
+        <f ca="1">$D$2*战斗公式!C$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!C$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!C$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!C$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!C$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!Y$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
         <v>0</v>
       </c>
       <c r="F4" s="19">
-        <f ca="1">$D$2*战斗公式!D$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!D$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!D$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!D$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!D$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!X$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
-        <v>434</v>
+        <f ca="1">$D$2*战斗公式!D$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!D$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!D$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!D$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!D$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!Z$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
+        <v>245</v>
       </c>
       <c r="G4" s="19">
-        <f ca="1">$D$2*战斗公式!E$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!E$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!E$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!E$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!E$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!Y$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
-        <v>45</v>
+        <f ca="1">$D$2*战斗公式!E$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!E$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!E$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!E$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!E$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!AA$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
+        <v>100</v>
       </c>
       <c r="H4" s="19">
-        <f ca="1">$D$2*战斗公式!F$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!F$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!F$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!F$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!F$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!Z$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
-        <v>2814</v>
+        <f ca="1">$D$2*战斗公式!F$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!F$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!F$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!F$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!F$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!AB$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
+        <v>2700</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">F4/(F4+战斗公式!$A$19)</f>
-        <v>0.68454258675078861</v>
+        <v>0.32885906040268459</v>
       </c>
       <c r="J4" s="15">
         <f ca="1">G4/(G4+战斗公式!$A$19)</f>
-        <v>0.18367346938775511</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K4" s="19">
         <f ca="1">$H$4/(1-I$4)</f>
-        <v>8920.3799999999992</v>
+        <v>4023.0000000000005</v>
       </c>
       <c r="L4" s="19">
         <f ca="1">$H$4/(1-J$4)</f>
-        <v>3447.15</v>
-      </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+        <v>3240</v>
+      </c>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B5" s="16"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B6" s="16"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B7" s="16"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B8" s="16"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
+      <c r="D8" s="10">
+        <v>1770</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4023</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8/D9</f>
+        <v>14.9</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16">
+        <v>270</v>
+      </c>
+      <c r="E9" s="16">
+        <v>26373</v>
+      </c>
+      <c r="F9" s="16">
+        <f>E9/D8</f>
+        <v>14.9</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="O1:S9"/>
+    <mergeCell ref="O1:T9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/策划文档/数值策划/战斗系统.xlsx
+++ b/策划文档/数值策划/战斗系统.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="战斗公式" sheetId="1" r:id="rId1"/>
     <sheet name="英雄原型" sheetId="4" r:id="rId2"/>
     <sheet name="英雄设计" sheetId="2" r:id="rId3"/>
     <sheet name="英雄检验" sheetId="3" r:id="rId4"/>
+    <sheet name="战斗属性" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="139">
   <si>
     <t>属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击节奏：普攻+技能连续攻击对应位置敌人，技能1和技能2可选择一个战斗时使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天神系</t>
   </si>
   <si>
@@ -458,6 +455,41 @@
   <si>
     <t>天选者</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷=X，体质=Y，成长系数相同的情况下
+初始护甲=DEF,初始血量=HP，X+Y=A常数时
+则有效血量的在最大值时(K为常数设定500)：
+敏捷=a点护甲，体质=b点血量
+护甲=a*X+DEF，血量=b*Y+HP
+有效血量=(b*Y+HP)/[1-a*X+DEF/(a*X+DEF+K)]求最大值
+X=(a*b*A-b*（DEF+K）+a*HP)/（2a*b）
+Y=A-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力系数</t>
+  </si>
+  <si>
+    <t>敏捷系数</t>
+  </si>
+  <si>
+    <t>精神系数</t>
+  </si>
+  <si>
+    <t>体质系数</t>
   </si>
   <si>
     <r>
@@ -484,10 +516,10 @@
 战斗力=有效攻击*有效生命：F=ATK*HP*(1-a)*(1+b)
 a:有效攻击变化率，b:有效生命变化率
 1-a=1/(1+b)，a=b/(1+b)
-设定战斗基本回合10回合,则ATK*10=HP
+设定战斗基本回合6回合,则ATK*10=HP
 有效攻击变化值Atk与有效生命变化值Hp
 Atk=ATK*a，Hp=HP*b
-Hp/Atk=10*（1+b)
+Hp/Atk=6*（1+b)
 可见有效攻击和有效生命互换的比率跟换算值占原值的比率b有线性关系，又加点系统互换比率保持在某一设定常数，所以属性加点系统的平衡随着加点带来的加成变多而会逐渐偏离设定平衡。
 则我们可以这样来设计加点玩法：
 1、若加点属性带来的属性值占基础数值的比率b变化范围在0-1之间
@@ -499,54 +531,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>敏捷=X，体质=Y，成长系数相同的情况下
-初始护甲=DEF,初始血量=HP，X+Y=A常数时
-则有效血量的在最大值时(K为常数设定500)：
-敏捷=a点护甲，体质=b点血量
-护甲=a*X+DEF，血量=b*Y+HP
-有效血量=(b*Y+HP)/[1-a*X+DEF/(a*X+DEF+K)]求最大值
-X=(a*b*A-b*（DEF+K）+a*HP)/（2a*b）
-Y=A-X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力系数</t>
-  </si>
-  <si>
-    <t>敏捷系数</t>
-  </si>
-  <si>
-    <t>精神系数</t>
-  </si>
-  <si>
-    <t>体质系数</t>
+    <t>技能3</t>
+  </si>
+  <si>
+    <t>攻击节奏：普攻回能量，能量够进行技能攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂魄等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备等阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石等级限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌升级能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌初始能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备总点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂魄等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0、1、2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备等阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高5维成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5维成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">战斗力公式=有效攻击*有效生命
-有效攻击=攻击*[1+（暴伤-1)*暴击率]+物理伤害/(技能能量/普攻恢复能量)+法术伤害/(技能能量/普攻恢复能量)+真实伤害
+有效攻击=攻击*[1+（暴伤-1)*暴击率]+技能伤害/(技能能量/普攻恢复能量)
 有效生命=生命*(护甲+魔抗+2K)/2K
-根据技能伤害类型确定是物理伤害、法术伤害
-其值等于=技能基值+攻击加成*攻击+法术加成*法术+生命加成*生命
 技能能量/普攻恢复能量=定值M(不同技能M不同)
-把战斗力公式分别对攻击、法术、护甲、魔抗、生命、暴击求导
-攻击导数=（1+暴击率+攻击加成/M)*生命*（护甲+魔抗+2K）/2K
-法术导数=法术加成/M*生命*（护甲+魔抗+2K)/2K
-护甲导数=[（M+M*暴击率+攻击加成)*攻击+技能基值+法术加成*法术+生命加成*生命+真实伤害]/M*生命/2K
-魔抗导数=[（M+M*暴击率+攻击加成)*攻击+技能基值+法术加成*法术+生命加成*生命+真实伤害]/M*生命/2K
-生命导数=[（M+M*暴击率+攻击加成)*攻击+技能基值+法术加成*法术+真实伤害+2*生命加成*生命]/M*（护甲+魔抗+2K）/2K
-暴击导数=攻击*生命*（护甲+魔抗+2K）/2K
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -805,7 +888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -876,6 +959,27 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -915,16 +1019,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2629,8 +2730,8 @@
   </sheetPr>
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2639,295 +2740,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="Q11" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="27"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="Q11" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="34"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
@@ -2972,15 +3073,15 @@
       <c r="O12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="30"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="37"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -3025,15 +3126,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="30"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="37"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -3078,15 +3179,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="30"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="37"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -3107,7 +3208,9 @@
         <f>(D15+E15)*$D$19/$A$19+F15/(1-$E$19)</f>
         <v>20</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6">
+        <v>24</v>
+      </c>
       <c r="J15" s="1" t="s">
         <v>3</v>
       </c>
@@ -3121,7 +3224,7 @@
       </c>
       <c r="M15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="0"/>
@@ -3131,15 +3234,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="30"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="37"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -3184,15 +3287,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="30"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="37"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
@@ -3213,9 +3316,7 @@
         <f>(D17+E17)*$D$19/$A$19+F17/(1-$E$19)</f>
         <v>37.5</v>
       </c>
-      <c r="I17" s="7">
-        <v>150</v>
-      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3237,17 +3338,17 @@
       </c>
       <c r="O17" s="1">
         <f t="shared" si="0"/>
-        <v>4500</v>
-      </c>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="37"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
@@ -3278,7 +3379,7 @@
       </c>
       <c r="M18" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="2"/>
@@ -3286,17 +3387,17 @@
       </c>
       <c r="O18" s="5">
         <f t="shared" si="2"/>
-        <v>4500</v>
-      </c>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="37"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
@@ -3314,15 +3415,15 @@
       <c r="E19" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="30"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="37"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
@@ -3335,65 +3436,65 @@
       <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="30"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="37"/>
     </row>
     <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="30"/>
+      <c r="A21" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="37"/>
     </row>
     <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="30"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="37"/>
     </row>
     <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -3412,25 +3513,25 @@
         <f>L23/(1-$J$23)</f>
         <v>1000</v>
       </c>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="30"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="37"/>
     </row>
     <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
       <c r="I24" s="3">
         <v>1</v>
       </c>
@@ -3449,25 +3550,25 @@
         <f t="shared" ref="M24:M43" si="4">L24/(1-$J$23)</f>
         <v>1010</v>
       </c>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="30"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="37"/>
     </row>
     <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
       <c r="I25" s="17">
         <v>2</v>
       </c>
@@ -3486,25 +3587,25 @@
         <f t="shared" si="4"/>
         <v>1020</v>
       </c>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="30"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="37"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
       <c r="I26" s="17">
         <v>3</v>
       </c>
@@ -3523,25 +3624,25 @@
         <f t="shared" si="4"/>
         <v>1030</v>
       </c>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="30"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="37"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="17">
         <v>4</v>
       </c>
@@ -3560,25 +3661,25 @@
         <f t="shared" si="4"/>
         <v>1040</v>
       </c>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="30"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="37"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="17">
         <v>5</v>
       </c>
@@ -3597,25 +3698,25 @@
         <f t="shared" si="4"/>
         <v>1050</v>
       </c>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="33"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="40"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
       <c r="I29" s="17">
         <v>6</v>
       </c>
@@ -3636,14 +3737,14 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="17">
         <v>7</v>
       </c>
@@ -3664,14 +3765,14 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
       <c r="I31" s="17">
         <v>8</v>
       </c>
@@ -3692,14 +3793,14 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
       <c r="I32" s="17">
         <v>9</v>
       </c>
@@ -3720,14 +3821,14 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="17">
         <v>10</v>
       </c>
@@ -3748,14 +3849,14 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
       <c r="I34" s="17">
         <v>11</v>
       </c>
@@ -3776,14 +3877,14 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
       <c r="I35" s="17">
         <v>12</v>
       </c>
@@ -3804,14 +3905,14 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
       <c r="I36" s="17">
         <v>13</v>
       </c>
@@ -3832,14 +3933,14 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
       <c r="I37" s="17">
         <v>14</v>
       </c>
@@ -3860,14 +3961,14 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
       <c r="I38" s="17">
         <v>15</v>
       </c>
@@ -3888,14 +3989,14 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
       <c r="I39" s="17">
         <v>16</v>
       </c>
@@ -3916,14 +4017,14 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
       <c r="I40" s="17">
         <v>17</v>
       </c>
@@ -3944,14 +4045,14 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
       <c r="I41" s="17">
         <v>18</v>
       </c>
@@ -3972,14 +4073,14 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
       <c r="I42" s="17">
         <v>19</v>
       </c>
@@ -4000,14 +4101,14 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
       <c r="I43" s="17">
         <v>20</v>
       </c>
@@ -4137,7 +4238,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4171,14 +4272,16 @@
       <c r="H1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="I1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
@@ -4191,7 +4294,7 @@
         <v>82</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -4228,7 +4331,7 @@
         <v>83</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -4239,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L3" s="22" t="s">
         <v>69</v>
@@ -4265,7 +4368,7 @@
         <v>84</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -4276,7 +4379,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L4" s="22" t="s">
         <v>70</v>
@@ -4302,7 +4405,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -4313,7 +4416,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L5" s="22" t="s">
         <v>68</v>
@@ -4339,7 +4442,7 @@
         <v>86</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -4350,7 +4453,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L6" s="22" t="s">
         <v>66</v>
@@ -4376,7 +4479,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4387,7 +4490,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L7" s="22" t="s">
         <v>67</v>
@@ -4413,7 +4516,7 @@
         <v>83</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -4437,7 +4540,7 @@
         <v>84</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -4461,7 +4564,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -4485,7 +4588,7 @@
         <v>86</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -4509,7 +4612,7 @@
         <v>82</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -4533,7 +4636,7 @@
         <v>83</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -4554,7 +4657,7 @@
         <v>84</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4575,7 +4678,7 @@
         <v>85</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4596,7 +4699,7 @@
         <v>86</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -4617,7 +4720,7 @@
         <v>82</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -4638,7 +4741,7 @@
         <v>83</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -4659,7 +4762,7 @@
         <v>84</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -4680,7 +4783,7 @@
         <v>85</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -4701,7 +4804,7 @@
         <v>86</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -4722,7 +4825,7 @@
         <v>82</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="13"/>
     </row>
@@ -4737,7 +4840,7 @@
         <v>83</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="13"/>
     </row>
@@ -4752,7 +4855,7 @@
         <v>84</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E24" s="13"/>
     </row>
@@ -4767,7 +4870,7 @@
         <v>85</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25" s="13"/>
     </row>
@@ -4782,7 +4885,7 @@
         <v>86</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="13"/>
     </row>
@@ -4804,7 +4907,7 @@
   <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -4822,19 +4925,19 @@
         <v>16</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>26</v>
@@ -4867,10 +4970,10 @@
         <v>21</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>22</v>
@@ -4967,7 +5070,7 @@
       <c r="R2" s="13">
         <v>0</v>
       </c>
-      <c r="S2" s="39">
+      <c r="S2" s="24">
         <v>2</v>
       </c>
       <c r="T2" s="15">
@@ -6475,7 +6578,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6507,14 +6610,14 @@
       <c r="H1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
+      <c r="O1" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -6528,12 +6631,12 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
@@ -6570,12 +6673,12 @@
       <c r="L3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B4" s="16"/>
@@ -6615,82 +6718,65 @@
         <f ca="1">$H$4/(1-J$4)</f>
         <v>3240</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B5" s="16"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B6" s="16"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B7" s="16"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B8" s="16"/>
-      <c r="D8" s="10">
-        <v>1770</v>
-      </c>
-      <c r="E8" s="10">
-        <v>4023</v>
-      </c>
-      <c r="F8" s="10">
-        <f>E8/D9</f>
-        <v>14.9</v>
-      </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C9" s="16"/>
-      <c r="D9" s="16">
-        <v>270</v>
-      </c>
-      <c r="E9" s="16">
-        <v>26373</v>
-      </c>
-      <c r="F9" s="16">
-        <f>E9/D8</f>
-        <v>14.9</v>
-      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C12" s="16"/>
@@ -6708,4 +6794,550 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="9" style="10"/>
+    <col min="16" max="16" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="10"/>
+    <col min="20" max="20" width="9.25" style="10" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="L1" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="25">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="26">
+        <v>90</v>
+      </c>
+      <c r="F2" s="26">
+        <v>150</v>
+      </c>
+      <c r="G2" s="26">
+        <v>75</v>
+      </c>
+      <c r="H2" s="25">
+        <v>36</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="L2" s="25">
+        <v>0</v>
+      </c>
+      <c r="M2" s="29">
+        <v>1</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="25">
+        <v>1</v>
+      </c>
+      <c r="P2" s="25">
+        <v>2</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="25">
+        <v>2</v>
+      </c>
+      <c r="D3" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="26">
+        <v>90</v>
+      </c>
+      <c r="F3" s="25">
+        <f>$F$2*(D3/$D$2)</f>
+        <v>250</v>
+      </c>
+      <c r="G3" s="25">
+        <f>$G$2*(D3/$D$2)</f>
+        <v>125</v>
+      </c>
+      <c r="H3" s="25">
+        <v>72</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="L3" s="25">
+        <v>1</v>
+      </c>
+      <c r="M3" s="30">
+        <f>M2+N3</f>
+        <v>1.2</v>
+      </c>
+      <c r="N3" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="25">
+        <v>1</v>
+      </c>
+      <c r="P3" s="25">
+        <v>2</v>
+      </c>
+      <c r="R3" s="25">
+        <v>1</v>
+      </c>
+      <c r="S3" s="26">
+        <v>2</v>
+      </c>
+      <c r="T3" s="25">
+        <f>S3*$T$1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="25">
+        <v>3</v>
+      </c>
+      <c r="D4" s="26">
+        <v>4</v>
+      </c>
+      <c r="E4" s="26">
+        <v>90</v>
+      </c>
+      <c r="F4" s="25">
+        <f t="shared" ref="F4:F6" si="0">$F$2*(D4/$D$2)</f>
+        <v>400</v>
+      </c>
+      <c r="G4" s="25">
+        <f t="shared" ref="G4:G6" si="1">$G$2*(D4/$D$2)</f>
+        <v>200</v>
+      </c>
+      <c r="H4" s="25">
+        <v>108</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="L4" s="27">
+        <v>2</v>
+      </c>
+      <c r="M4" s="30">
+        <f t="shared" ref="M4:M12" si="2">M3+N4</f>
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="O4" s="25">
+        <v>1</v>
+      </c>
+      <c r="P4" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>1</v>
+      </c>
+      <c r="R4" s="25">
+        <v>2</v>
+      </c>
+      <c r="S4" s="26">
+        <v>4</v>
+      </c>
+      <c r="T4" s="25">
+        <f t="shared" ref="T4:T7" si="3">S4*$T$1</f>
+        <v>72</v>
+      </c>
+      <c r="U4" s="10">
+        <f>S4/S3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="25">
+        <v>4</v>
+      </c>
+      <c r="D5" s="26">
+        <v>6</v>
+      </c>
+      <c r="E5" s="26">
+        <v>90</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="G5" s="25">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="H5" s="25">
+        <v>144</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="L5" s="28">
+        <v>3</v>
+      </c>
+      <c r="M5" s="30">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="N5" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="O5" s="25">
+        <v>2</v>
+      </c>
+      <c r="P5" s="25">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>2</v>
+      </c>
+      <c r="R5" s="25">
+        <v>3</v>
+      </c>
+      <c r="S5" s="26">
+        <v>12</v>
+      </c>
+      <c r="T5" s="25">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" ref="U5:U8" si="4">S5/S4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="25">
+        <v>5</v>
+      </c>
+      <c r="D6" s="26">
+        <v>8</v>
+      </c>
+      <c r="E6" s="26">
+        <v>90</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="G6" s="25">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="H6" s="25">
+        <v>216</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="L6" s="27">
+        <v>4</v>
+      </c>
+      <c r="M6" s="30">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="O6" s="25">
+        <v>2</v>
+      </c>
+      <c r="P6" s="25">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>3</v>
+      </c>
+      <c r="R6" s="25">
+        <v>4</v>
+      </c>
+      <c r="S6" s="26">
+        <v>36</v>
+      </c>
+      <c r="T6" s="25">
+        <f t="shared" si="3"/>
+        <v>648</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="L7" s="28">
+        <v>5</v>
+      </c>
+      <c r="M7" s="30">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="O7" s="25">
+        <v>3</v>
+      </c>
+      <c r="P7" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>4</v>
+      </c>
+      <c r="R7" s="25">
+        <v>5</v>
+      </c>
+      <c r="S7" s="26">
+        <v>54</v>
+      </c>
+      <c r="T7" s="25">
+        <f t="shared" si="3"/>
+        <v>972</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="L8" s="27">
+        <v>6</v>
+      </c>
+      <c r="M8" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N8" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="O8" s="25">
+        <v>3</v>
+      </c>
+      <c r="P8" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>5</v>
+      </c>
+      <c r="R8" s="25">
+        <v>6</v>
+      </c>
+      <c r="S8" s="26">
+        <v>81</v>
+      </c>
+      <c r="T8" s="25">
+        <f t="shared" ref="T8" si="5">S8*$T$1</f>
+        <v>1458</v>
+      </c>
+      <c r="U8" s="10">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L9" s="25">
+        <v>7</v>
+      </c>
+      <c r="M9" s="30">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N9" s="26">
+        <v>1</v>
+      </c>
+      <c r="O9" s="25">
+        <v>4</v>
+      </c>
+      <c r="P9" s="25">
+        <v>5</v>
+      </c>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L10" s="27">
+        <v>8</v>
+      </c>
+      <c r="M10" s="30">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N10" s="26">
+        <v>1</v>
+      </c>
+      <c r="O10" s="25">
+        <v>4</v>
+      </c>
+      <c r="P10" s="25">
+        <v>5</v>
+      </c>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L11" s="25">
+        <v>9</v>
+      </c>
+      <c r="M11" s="30">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N11" s="26">
+        <v>1</v>
+      </c>
+      <c r="O11" s="25">
+        <v>5</v>
+      </c>
+      <c r="P11" s="25">
+        <v>6</v>
+      </c>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L12" s="27">
+        <v>10</v>
+      </c>
+      <c r="M12" s="30">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N12" s="26">
+        <v>1</v>
+      </c>
+      <c r="O12" s="25">
+        <v>5</v>
+      </c>
+      <c r="P12" s="25">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/策划文档/数值策划/战斗系统.xlsx
+++ b/策划文档/数值策划/战斗系统.xlsx
@@ -6801,7 +6801,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/策划文档/数值策划/战斗系统.xlsx
+++ b/策划文档/数值策划/战斗系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="战斗公式" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="170">
   <si>
     <t>属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,49 +363,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔法伤害、攻击较高、高魔防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害、血量偏高、高物防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>混合伤害、高血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>雷</t>
-  </si>
-  <si>
-    <t>土</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>力量/体质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量/敏捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量/精神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量/智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,41 +380,6 @@
   </si>
   <si>
     <t>技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天神系</t>
-  </si>
-  <si>
-    <t>天神系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天魔系</t>
-  </si>
-  <si>
-    <t>天魔系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻妖系</t>
-  </si>
-  <si>
-    <t>幻妖系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修罗系</t>
-  </si>
-  <si>
-    <t>修罗系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天选者</t>
-  </si>
-  <si>
-    <t>天选者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -631,6 +557,208 @@
 有效生命=生命*(护甲+魔抗+2K)/2K
 技能能量/普攻恢复能量=定值M(不同技能M不同)
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人族</t>
+  </si>
+  <si>
+    <t>鬼族</t>
+  </si>
+  <si>
+    <t>神族</t>
+  </si>
+  <si>
+    <t>魔族</t>
+  </si>
+  <si>
+    <t>妖族</t>
+  </si>
+  <si>
+    <t>龙族</t>
+  </si>
+  <si>
+    <t>魔法伤害、血量偏高、高物防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害、攻击较高、高魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法攻击高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存能力低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法伤害、攻击超高、血量低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量/体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶能力:雷属性英雄造成的伤害额外减免50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉女心经：普攻攻击附加1个透体标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量/敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜杀：每次普攻后攻击提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黯然销魂掌：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，附加2个透体标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寸劲拳：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，攻击携带透体标记的英雄时，每存在一个标记附加10%的破甲效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七伤拳：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，攻击携带透体标记的英雄时，每存在一个标记附加10%的物理增伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉女剑法：对敌方单体造成固定值+（法术一定百分比）的法术伤害，附加2个透体标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淑女剑：对敌方单体造成固定值+（法术一定百分比）的法术伤害，攻击携带透体标记的英雄时，每消耗一个标记附加10%的破魔效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉峰针：对敌方单体造成固定值+（法术一定百分比）的法术伤害，攻击携带透体标记的英雄时，每消耗一个标记附加10%的法术增伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡皮枪：对敌方单体造成固定值+（攻击一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙卷：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，提升护甲值10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居合：对敌方单体造成固定值+（攻击一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一大三千世界：对敌方全体造成固定值+（攻击一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷/体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士：场上每存在一位女性英雄，提升10%护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回旋踢：对敌方单体造成固定值+（攻击一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎踢：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，眩晕目标一回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡皮矛：对敌方单体造成固定值+（攻击一定百分比）的法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰恶魔:对敌方全体造成固定值+（攻击一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room：每次普攻增加1层Room，被攻击时，消耗1层Room可以将本次攻击转移给敌方随机1位英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠宰场：随机攻击敌方1位英雄造成固定值+（攻击一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥棒：对敌方单体造成固定值+（精神一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶乱打：对敌方全体造成固定值+（体质一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱空间：对敌方全体造成固定值+（攻击一定百分比）的法术伤害，额外增加1层Room</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,7 +1016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1027,6 +1155,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3019,7 +3156,7 @@
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="Q11" s="32" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
@@ -3448,7 +3585,7 @@
     </row>
     <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="44" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -4237,12 +4374,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.75" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="34.125" style="48" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="18.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.125" customWidth="1"/>
   </cols>
@@ -4252,55 +4395,65 @@
         <v>15</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="45" t="s">
         <v>94</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>115</v>
       </c>
       <c r="K1" s="45"/>
       <c r="L1" s="45"/>
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="63" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="B2" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>148</v>
+      </c>
       <c r="J2" s="23" t="s">
         <v>58</v>
       </c>
@@ -4320,35 +4473,45 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="63" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="B3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>151</v>
+      </c>
       <c r="J3" s="22">
         <v>1</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="L3" s="22" t="s">
         <v>69</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N3" s="22" t="s">
         <v>77</v>
@@ -4357,29 +4520,39 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="B4" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>168</v>
+      </c>
       <c r="J4" s="22">
         <v>2</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="L4" s="22" t="s">
         <v>70</v>
@@ -4388,72 +4561,92 @@
         <v>74</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="47.25" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="B5" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>155</v>
+      </c>
       <c r="J5" s="22">
         <v>3</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="B6" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>162</v>
+      </c>
       <c r="J6" s="22">
         <v>4</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="L6" s="22" t="s">
         <v>66</v>
@@ -4468,38 +4661,48 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="B7" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>169</v>
+      </c>
       <c r="J7" s="22">
         <v>5</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="L7" s="22" t="s">
         <v>67</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>59</v>
@@ -4509,44 +4712,42 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="22">
+        <v>6</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
@@ -4557,20 +4758,14 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
@@ -4581,20 +4776,14 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
@@ -4605,20 +4794,14 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
@@ -4629,20 +4812,14 @@
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
     </row>
@@ -4650,20 +4827,14 @@
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
@@ -4671,20 +4842,14 @@
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
@@ -4692,20 +4857,14 @@
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
@@ -4713,20 +4872,14 @@
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
@@ -4734,20 +4887,14 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
@@ -4755,20 +4902,14 @@
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
@@ -4776,20 +4917,14 @@
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
@@ -4797,20 +4932,14 @@
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
@@ -4818,76 +4947,66 @@
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4925,19 +5044,19 @@
         <v>16</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>26</v>
@@ -4970,10 +5089,10 @@
         <v>21</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>22</v>
@@ -6611,7 +6730,7 @@
         <v>47</v>
       </c>
       <c r="O1" s="46" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="P1" s="46"/>
       <c r="Q1" s="46"/>
@@ -6800,8 +6919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6820,45 +6939,45 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
       <c r="L1" s="27" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="T1" s="16">
         <v>18</v>
@@ -6869,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C2" s="25">
         <v>1</v>
@@ -6905,16 +7024,16 @@
         <v>2</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="S2" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
@@ -6922,7 +7041,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C3" s="25">
         <v>2</v>
@@ -6978,7 +7097,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C4" s="25">
         <v>3</v>
@@ -7041,7 +7160,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C5" s="25">
         <v>4</v>
@@ -7104,7 +7223,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C6" s="25">
         <v>5</v>

--- a/策划文档/数值策划/战斗系统.xlsx
+++ b/策划文档/数值策划/战斗系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="战斗公式" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="223">
   <si>
     <t>属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,42 +272,6 @@
   </si>
   <si>
     <t>土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>战斗公式：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Hurt：最终伤害 Atk：物理伤害 Magic：魔法伤害
-Cri：暴击 Cri_d：暴击伤害
-Arm：护甲 Res：魔抗 Hp：生命 Hit：命中
-Hurt_up：增加伤害 Hurt1_up:增加物理伤害
-Hurt2_up:增加法术伤害
-根据Hit先判断是否命中，默认命中率100%
-命中后伤害处理：
-用1代表攻击方，2代表被攻击方
-护甲减伤ArmR=Arm/(Arm+K)
-魔抗减伤ResR=Res/(Res+K)
-</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -552,213 +516,443 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>人族</t>
+  </si>
+  <si>
+    <t>鬼族</t>
+  </si>
+  <si>
+    <t>神族</t>
+  </si>
+  <si>
+    <t>魔族</t>
+  </si>
+  <si>
+    <t>妖族</t>
+  </si>
+  <si>
+    <t>龙族</t>
+  </si>
+  <si>
+    <t>魔法伤害、血量偏高、高物防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害、攻击较高、高魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法攻击高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存能力低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法伤害、攻击超高、血量低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量/体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶能力:雷属性英雄造成的伤害额外减免50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉女心经：普攻攻击附加1个透体标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量/敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜杀：每次普攻后攻击提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黯然销魂掌：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，附加2个透体标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寸劲拳：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，攻击携带透体标记的英雄时，每存在一个标记附加10%的破甲效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七伤拳：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，攻击携带透体标记的英雄时，每存在一个标记附加10%的物理增伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉女剑法：对敌方单体造成固定值+（法术一定百分比）的法术伤害，附加2个透体标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淑女剑：对敌方单体造成固定值+（法术一定百分比）的法术伤害，攻击携带透体标记的英雄时，每消耗一个标记附加10%的破魔效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉峰针：对敌方单体造成固定值+（法术一定百分比）的法术伤害，攻击携带透体标记的英雄时，每消耗一个标记附加10%的法术增伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡皮枪：对敌方单体造成固定值+（攻击一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙卷：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，提升护甲值10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居合：对敌方单体造成固定值+（攻击一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一大三千世界：对敌方全体造成固定值+（攻击一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷/体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士：场上每存在一位女性英雄，提升10%护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回旋踢：对敌方单体造成固定值+（攻击一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎踢：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，眩晕目标一回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡皮矛：对敌方单体造成固定值+（攻击一定百分比）的法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰恶魔:对敌方全体造成固定值+（攻击一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠宰场：随机攻击敌方1位英雄造成固定值+（攻击一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶乱打：对敌方全体造成固定值+（体质一定百分比）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱空间：对敌方全体造成固定值+（攻击一定百分比）的法术伤害，额外增加1层Room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥棒：对敌方单体造成固定值+（精神一定百分比）的物理伤害，每携带1层Room伤害提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room：每次普攻增加1层Room，被攻击时，消耗1层Room可以将本次攻击无效化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻物理伤害率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻法术伤害率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理增伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术增伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理减伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术减伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>De_All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cri_Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻增伤率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能增伤率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit_Ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit_Ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>De_Ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>De_Ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理类型伤害总值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术类型伤害总值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Truth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ap_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cri_Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比破甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比破魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power_need</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ap_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">战斗力公式=有效攻击*有效生命
-有效攻击=攻击*[1+（暴伤-1)*暴击率]+技能伤害/(技能能量/普攻恢复能量)
-有效生命=生命*(护甲+魔抗+2K)/2K
+M=0.3
+有效攻击=
+[Atk*Hit_Ad*（1+Hit_Up+Ad_Up+All_Up)+                       物理伤害普攻行为部分
+Skill_Ad*（1+Skill_Up+Ad_Up+All_Up）*Power_get/Power_nned]* 物理伤害技能行为部分
+[(Cri_Hit-1)*Cri_Rate+1]*                                   暴击效果伤害期望影响
+（1+Def_Down*M）+                                           破甲效果换算影响
+[Atk*Hit_Ap*（1+Hit_Up+Ap_Up+All_Up)+                       法术伤害普攻行为部分
+Skill_Ap*（1+Skill_Up+Ap_Up+All_Up）*Power_get/Power_nned]* 法术伤害技能行为部分
+（1+Res_Down*M）+                                           破魔效果换算影响
+Truth                                                       真实伤害部分
+核心思想，看一些属性对有效攻击的提升幅度，这样就可以把这个属性效果公式表现
+有效生命=
+Hp*                                                         生命本身影响
+（Def+Re+2K）/2K/                                           护甲魔抗效果影响
+(1-De_Ad*0.5-De_Ap*0.5-De_All-Atk_Down*0.25-Ap_Down*0.25)  各种减伤和降低敌方伤害
+核心思想，看一些属性对有效生命的提升幅度
 技能能量/普攻恢复能量=定值M(不同技能M不同)
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人族</t>
-  </si>
-  <si>
-    <t>鬼族</t>
-  </si>
-  <si>
-    <t>神族</t>
-  </si>
-  <si>
-    <t>魔族</t>
-  </si>
-  <si>
-    <t>妖族</t>
-  </si>
-  <si>
-    <t>龙族</t>
-  </si>
-  <si>
-    <t>魔法伤害、血量偏高、高物防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害、攻击较高、高魔防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法攻击高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生存能力低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法伤害、攻击超高、血量低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量/体质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橡胶能力:雷属性英雄造成的伤害额外减免50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龙女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉女心经：普攻攻击附加1个透体标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量/敏捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索隆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜杀：每次普攻后攻击提升10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黯然销魂掌：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，附加2个透体标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寸劲拳：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，攻击携带透体标记的英雄时，每存在一个标记附加10%的破甲效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七伤拳：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，攻击携带透体标记的英雄时，每存在一个标记附加10%的物理增伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉女剑法：对敌方单体造成固定值+（法术一定百分比）的法术伤害，附加2个透体标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淑女剑：对敌方单体造成固定值+（法术一定百分比）的法术伤害，攻击携带透体标记的英雄时，每消耗一个标记附加10%的破魔效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉峰针：对敌方单体造成固定值+（法术一定百分比）的法术伤害，攻击携带透体标记的英雄时，每消耗一个标记附加10%的法术增伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橡皮枪：对敌方单体造成固定值+（攻击一定百分比）的物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙卷：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，提升护甲值10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居合：对敌方单体造成固定值+（攻击一定百分比）的物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一大三千世界：对敌方全体造成固定值+（攻击一定百分比）的物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山治</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷/体质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绅士：场上每存在一位女性英雄，提升10%护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回旋踢：对敌方单体造成固定值+（攻击一定百分比）的物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎踢：对敌方单体造成固定值+（攻击一定百分比）的物理伤害，眩晕目标一回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橡皮矛：对敌方单体造成固定值+（攻击一定百分比）的法术伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰恶魔:对敌方全体造成固定值+（攻击一定百分比）的物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Room：每次普攻增加1层Room，被攻击时，消耗1层Room可以将本次攻击转移给敌方随机1位英雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屠宰场：随机攻击敌方1位英雄造成固定值+（攻击一定百分比）的物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指挥棒：对敌方单体造成固定值+（精神一定百分比）的物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橡胶乱打：对敌方全体造成固定值+（体质一定百分比）的物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混乱空间：对敌方全体造成固定值+（攻击一定百分比）的法术伤害，额外增加1层Room</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +960,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,13 +1043,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="华文新魏"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -871,7 +1058,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -895,79 +1082,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1009,6 +1125,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1016,7 +1212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1033,7 +1229,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1066,9 +1262,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1081,10 +1274,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1111,20 +1304,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1138,32 +1334,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1184,14 +1383,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="13020675" cy="1685924"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="12325350" cy="1685924"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1199,8 +1398,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4114799" y="19051"/>
-              <a:ext cx="13020675" cy="1685924"/>
+              <a:off x="2724150" y="9526"/>
+              <a:ext cx="12325350" cy="1685924"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1233,7 +1432,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>Cri_d=100% </a:t>
+                <a:t>Cri_Hit=100% </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
@@ -1241,7 +1440,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>Cri_d=200%,K</a:t>
+                <a:t>Cri_HIt=200%,K</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
@@ -1249,7 +1448,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>200(</a:t>
+                <a:t>500(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -1281,7 +1480,7 @@
                     <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>Arm=50</a:t>
+                <a:t>Arm=125</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -1297,7 +1496,7 @@
                     <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>Res=50</a:t>
+                <a:t>Res=125</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
@@ -1308,148 +1507,604 @@
             <a:p>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>普攻伤害</a:t>
+                <a:t>伤害</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
                 <a:t>=</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>攻击力*（</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>1-</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>护甲减伤</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>-</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>额外护甲减伤）*（</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>1+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>物理增伤）*暴击伤害</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>物理最终伤害</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>物理伤害*（</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Atk</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>*</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Hit_Ad</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>*（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1+Hit_Up+Ad_Up+All_Up)+Skill_Ad</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>*（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1+Skill_Up+Ad_Up+All_Up</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>）*（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>1-</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>护甲减伤</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>-</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>额外护甲减伤）*（</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>1+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>物理增伤）</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <m:rPr>
+                          <m:sty m:val="p"/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>Def</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <m:rPr>
+                          <m:sty m:val="p"/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>Def</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:sty m:val="p"/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>K</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>−</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>De_Ad-De_All)*Cri_Hit+     ------------</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>物理伤害类型部分有暴击加成（普攻和技能</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>BUFF</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>伤害）</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>法术最终伤害</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>法术伤害*（</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Atk</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>*</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Hit_Ap*</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1+Hit_Up+Ap_Up+All_Up)+Skill_Ap</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1+Skill_Up+Ap_Up+All_Up</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>）*（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>1-</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>魔抗减伤</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>-</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>额外魔抗减伤）*（</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>1+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>法术增加）</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <m:rPr>
+                          <m:sty m:val="p"/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>Res</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <m:rPr>
+                          <m:sty m:val="p"/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>Res</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:sty m:val="p"/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>K</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>−</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>De_Ap-De_All)+                     ------------</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>法术</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>伤害类型部分</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>无暴击加成</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>（普攻和技能</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>BUFF</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>伤害）</a:t>
+              </a:r>
             </a:p>
             <a:p>
               <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0"/>
+                <a:t>Truth                                                                                                                                                                                                 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                <a:t>------------</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>最终伤害公式</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>普攻伤害</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>物理伤害</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>法术伤害</a:t>
+                <a:t>真实伤害值总和</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
             </a:p>
@@ -1992,7 +2647,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -2000,8 +2655,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4114799" y="19051"/>
-              <a:ext cx="13020675" cy="1685924"/>
+              <a:off x="2724150" y="9526"/>
+              <a:ext cx="12325350" cy="1685924"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2034,7 +2689,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>Cri_d=100% </a:t>
+                <a:t>Cri_Hit=100% </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
@@ -2042,7 +2697,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>Cri_d=200%,K</a:t>
+                <a:t>Cri_HIt=200%,K</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
@@ -2050,7 +2705,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>200(</a:t>
+                <a:t>500(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -2082,7 +2737,7 @@
                     <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>Arm=50</a:t>
+                <a:t>Arm=125</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -2098,7 +2753,7 @@
                     <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>Res=50</a:t>
+                <a:t>Res=125</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
@@ -2109,148 +2764,408 @@
             <a:p>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>普攻伤害</a:t>
+                <a:t>伤害</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
                 <a:t>=</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>攻击力*（</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>1-</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>护甲减伤</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>-</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>额外护甲减伤）*（</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>1+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>物理增伤）*暴击伤害</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>物理最终伤害</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>物理伤害*（</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>1-</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>护甲减伤</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>-</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>额外护甲减伤）*（</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>1+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>物理增伤）</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Atk</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>*</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Hit_Ad</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>*（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1+Hit_Up+Ad_Up+All_Up)+Skill_Ad</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>*（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1+Skill_Up+Ad_Up+All_Up</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>）*（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1-Def/(Def+K)−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>De_Ad-De_All)*Cri_Hit+     ------------</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>物理伤害类型部分有暴击加成（普攻和技能</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>BUFF</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>伤害）</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>法术最终伤害</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>法术伤害*（</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>1-</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>魔抗减伤</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>-</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>额外魔抗减伤）*（</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>1+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>法术增加）</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Atk</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>*</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Hit_Ap*</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1+Hit_Up+Ap_Up+All_Up)+Skill_Ap</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1+Skill_Up+Ap_Up+All_Up</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>）*（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1-Res/(Res+K)−De_Ap-De_All)+                     ------------</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>法术</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>伤害类型部分</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>无暴击加成</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>（普攻和技能</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>BUFF</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>伤害）</a:t>
+              </a:r>
             </a:p>
             <a:p>
               <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0"/>
+                <a:t>Truth                                                                                                                                                                                                 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                <a:t>------------</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>最终伤害公式</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>普攻伤害</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>物理伤害</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                <a:t>法术伤害</a:t>
+                <a:t>真实伤害值总和</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
             </a:p>
@@ -2865,448 +3780,522 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="11.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="30"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-    </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="Q11" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="34"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="1" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A6" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A8" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A9" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A10" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+    </row>
+    <row r="11" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A12" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="M12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="O12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="Q12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="37"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A13" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2">
+      <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="1">
-        <f>(B13+C13)*0.8</f>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1">
+        <f>(E13+F13)*0.8</f>
         <v>8</v>
       </c>
-      <c r="H13" s="1">
-        <f>(D13+E13)*$D$19/$A$19+F13/(1-$E$19)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1">
+        <f>(G13+H13)*$G$19/$D$19+I13/(1-$H$19)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="1">
-        <f t="shared" ref="K13:O17" si="0">B13*$I13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="N13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N13:R17" si="0">E13*$L13</f>
         <v>0</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="37"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="P13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A14" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
         <v>10</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1">
-        <f>(B14+C14)*0.8</f>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1">
+        <f>(E14+F14)*0.8</f>
         <v>8</v>
       </c>
-      <c r="H14" s="1">
-        <f>(D14+E14)*$D$19/$A$19+F14/(1-$E$19)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1">
+        <f>(G14+H14)*$G$19/$D$19+I14/(1-$H$19)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="0"/>
@@ -3316,105 +4305,119 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="37"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="P14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A15" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <v>5</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="1">
-        <f t="shared" ref="G15:G17" si="1">(B15+C15)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>(D15+E15)*$D$19/$A$19+F15/(1-$E$19)</f>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1">
+        <f t="shared" ref="J15:J17" si="1">(E15+F15)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <f>(G15+H15)*$G$19/$D$19+I15/(1-$H$19)</f>
         <v>20</v>
       </c>
-      <c r="I15" s="6">
+      <c r="L15" s="6">
         <v>24</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="1">
+      <c r="N15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="1">
+      <c r="O15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="1">
+      <c r="P15" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="N15" s="1">
+      <c r="Q15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="1">
+      <c r="R15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="37"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A16" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
         <v>5</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1">
+      <c r="I16" s="2"/>
+      <c r="J16" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="1">
-        <f>(D16+E16)*$D$19/$A$19+F16/(1-$E$19)</f>
+      <c r="K16" s="1">
+        <f>(G16+H16)*$G$19/$D$19+I16/(1-$H$19)</f>
         <v>20</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="1" t="s">
+      <c r="L16" s="7"/>
+      <c r="M16" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="0"/>
@@ -3424,50 +4427,57 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="37"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="P16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A17" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
         <v>30</v>
       </c>
-      <c r="G17" s="1">
+      <c r="J17" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="1">
-        <f>(D17+E17)*$D$19/$A$19+F17/(1-$E$19)</f>
+      <c r="K17" s="1">
+        <f>(G17+H17)*$G$19/$D$19+I17/(1-$H$19)</f>
         <v>37.5</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="1" t="s">
+      <c r="L17" s="7"/>
+      <c r="M17" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="0"/>
@@ -3477,890 +4487,859 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="37"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+      <c r="P17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A18" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="5">
-        <f>SUM(K13:K17)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" ref="L18:O18" si="2">SUM(L13:L17)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
+        <f>SUM(N13:N17)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" ref="O18:R18" si="2">SUM(O13:O17)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="N18" s="5">
+      <c r="Q18" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="5">
+      <c r="R18" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="37"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A19" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="4">
         <v>500</v>
       </c>
-      <c r="B19" s="4">
+      <c r="E19" s="4">
         <v>30</v>
       </c>
-      <c r="C19" s="4">
+      <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="D19" s="4">
+      <c r="G19" s="4">
         <v>2000</v>
       </c>
-      <c r="E19" s="4">
+      <c r="H19" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="37"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+    </row>
+    <row r="20" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>207</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="I20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="37"/>
-    </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="37"/>
-    </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="37"/>
-    </row>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <f>I23/(I23+200)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <f>$I$20/(1-J23)</f>
-        <v>1000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M23" s="3">
-        <f>L23/(1-$J$23)</f>
-        <v>1000</v>
-      </c>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="37"/>
-    </row>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="17">
-        <f t="shared" ref="J24:J43" si="3">I24/(I24+200)</f>
-        <v>4.9751243781094526E-3</v>
-      </c>
-      <c r="K24" s="17">
-        <f>$I$20/(1-J24)</f>
-        <v>1005</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1010</v>
-      </c>
-      <c r="M24" s="17">
-        <f t="shared" ref="M24:M43" si="4">L24/(1-$J$23)</f>
-        <v>1010</v>
-      </c>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="37"/>
-    </row>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="17">
-        <v>2</v>
-      </c>
-      <c r="J25" s="17">
-        <f t="shared" si="3"/>
-        <v>9.9009900990099011E-3</v>
-      </c>
-      <c r="K25" s="17">
-        <f t="shared" ref="K25:K43" si="5">$I$20/(1-J25)</f>
-        <v>1010</v>
-      </c>
-      <c r="L25" s="17">
-        <v>1020</v>
-      </c>
-      <c r="M25" s="17">
-        <f t="shared" si="4"/>
-        <v>1020</v>
-      </c>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="37"/>
-    </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="17">
-        <v>3</v>
-      </c>
-      <c r="J26" s="17">
-        <f t="shared" si="3"/>
-        <v>1.4778325123152709E-2</v>
-      </c>
-      <c r="K26" s="17">
-        <f t="shared" si="5"/>
-        <v>1015</v>
-      </c>
-      <c r="L26" s="17">
-        <v>1030</v>
-      </c>
-      <c r="M26" s="17">
-        <f t="shared" si="4"/>
-        <v>1030</v>
-      </c>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="37"/>
-    </row>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="17">
-        <v>4</v>
-      </c>
-      <c r="J27" s="17">
-        <f t="shared" si="3"/>
-        <v>1.9607843137254902E-2</v>
-      </c>
-      <c r="K27" s="17">
-        <f t="shared" si="5"/>
-        <v>1020</v>
-      </c>
-      <c r="L27" s="17">
-        <v>1040</v>
-      </c>
-      <c r="M27" s="17">
-        <f t="shared" si="4"/>
-        <v>1040</v>
-      </c>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="37"/>
-    </row>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="17">
-        <v>5</v>
-      </c>
-      <c r="J28" s="17">
-        <f t="shared" si="3"/>
-        <v>2.4390243902439025E-2</v>
-      </c>
-      <c r="K28" s="17">
-        <f t="shared" si="5"/>
-        <v>1025</v>
-      </c>
-      <c r="L28" s="17">
-        <v>1050</v>
-      </c>
-      <c r="M28" s="17">
-        <f t="shared" si="4"/>
-        <v>1050</v>
-      </c>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="40"/>
-    </row>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="17">
-        <v>6</v>
-      </c>
-      <c r="J29" s="17">
-        <f t="shared" si="3"/>
-        <v>2.9126213592233011E-2</v>
-      </c>
-      <c r="K29" s="17">
-        <f t="shared" si="5"/>
-        <v>1030</v>
-      </c>
-      <c r="L29" s="17">
-        <v>1060</v>
-      </c>
-      <c r="M29" s="17">
-        <f t="shared" si="4"/>
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="17">
-        <v>7</v>
-      </c>
-      <c r="J30" s="17">
-        <f t="shared" si="3"/>
-        <v>3.3816425120772944E-2</v>
-      </c>
-      <c r="K30" s="17">
-        <f t="shared" si="5"/>
-        <v>1035</v>
-      </c>
-      <c r="L30" s="17">
-        <v>1070</v>
-      </c>
-      <c r="M30" s="17">
-        <f t="shared" si="4"/>
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="17">
-        <v>8</v>
-      </c>
-      <c r="J31" s="17">
-        <f t="shared" si="3"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="K31" s="17">
-        <f t="shared" si="5"/>
-        <v>1040</v>
-      </c>
-      <c r="L31" s="17">
-        <v>1080</v>
-      </c>
-      <c r="M31" s="17">
-        <f t="shared" si="4"/>
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="17">
-        <v>9</v>
-      </c>
-      <c r="J32" s="17">
-        <f t="shared" si="3"/>
-        <v>4.3062200956937802E-2</v>
-      </c>
-      <c r="K32" s="17">
-        <f t="shared" si="5"/>
-        <v>1045</v>
-      </c>
-      <c r="L32" s="17">
-        <v>1090</v>
-      </c>
-      <c r="M32" s="17">
-        <f t="shared" si="4"/>
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="17">
-        <v>10</v>
-      </c>
-      <c r="J33" s="17">
-        <f t="shared" si="3"/>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="K33" s="17">
-        <f t="shared" si="5"/>
-        <v>1050</v>
-      </c>
-      <c r="L33" s="17">
-        <v>1100</v>
-      </c>
-      <c r="M33" s="17">
-        <f t="shared" si="4"/>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="17">
-        <v>11</v>
-      </c>
-      <c r="J34" s="17">
-        <f t="shared" si="3"/>
-        <v>5.2132701421800945E-2</v>
-      </c>
-      <c r="K34" s="17">
-        <f t="shared" si="5"/>
-        <v>1055</v>
-      </c>
-      <c r="L34" s="17">
-        <v>1110</v>
-      </c>
-      <c r="M34" s="17">
-        <f t="shared" si="4"/>
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="17">
-        <v>12</v>
-      </c>
-      <c r="J35" s="17">
-        <f t="shared" si="3"/>
-        <v>5.6603773584905662E-2</v>
-      </c>
-      <c r="K35" s="17">
-        <f t="shared" si="5"/>
-        <v>1060</v>
-      </c>
-      <c r="L35" s="17">
-        <v>1120</v>
-      </c>
-      <c r="M35" s="17">
-        <f t="shared" si="4"/>
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="17">
-        <v>13</v>
-      </c>
-      <c r="J36" s="17">
-        <f t="shared" si="3"/>
-        <v>6.1032863849765258E-2</v>
-      </c>
-      <c r="K36" s="17">
-        <f t="shared" si="5"/>
-        <v>1065</v>
-      </c>
-      <c r="L36" s="17">
-        <v>1130</v>
-      </c>
-      <c r="M36" s="17">
-        <f t="shared" si="4"/>
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="17">
-        <v>14</v>
-      </c>
-      <c r="J37" s="17">
-        <f t="shared" si="3"/>
-        <v>6.5420560747663545E-2</v>
-      </c>
-      <c r="K37" s="17">
-        <f t="shared" si="5"/>
-        <v>1070</v>
-      </c>
-      <c r="L37" s="17">
-        <v>1140</v>
-      </c>
-      <c r="M37" s="17">
-        <f t="shared" si="4"/>
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="17">
-        <v>15</v>
-      </c>
-      <c r="J38" s="17">
-        <f t="shared" si="3"/>
-        <v>6.9767441860465115E-2</v>
-      </c>
-      <c r="K38" s="17">
-        <f t="shared" si="5"/>
-        <v>1075</v>
-      </c>
-      <c r="L38" s="17">
-        <v>1150</v>
-      </c>
-      <c r="M38" s="17">
-        <f t="shared" si="4"/>
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="17">
-        <v>16</v>
-      </c>
-      <c r="J39" s="17">
-        <f t="shared" si="3"/>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="K39" s="17">
-        <f t="shared" si="5"/>
-        <v>1080</v>
-      </c>
-      <c r="L39" s="17">
-        <v>1160</v>
-      </c>
-      <c r="M39" s="17">
-        <f t="shared" si="4"/>
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="17">
-        <v>17</v>
-      </c>
-      <c r="J40" s="17">
-        <f t="shared" si="3"/>
-        <v>7.8341013824884786E-2</v>
-      </c>
-      <c r="K40" s="17">
-        <f t="shared" si="5"/>
-        <v>1085</v>
-      </c>
-      <c r="L40" s="17">
-        <v>1170</v>
-      </c>
-      <c r="M40" s="17">
-        <f t="shared" si="4"/>
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="17">
-        <v>18</v>
-      </c>
-      <c r="J41" s="17">
-        <f t="shared" si="3"/>
-        <v>8.2568807339449546E-2</v>
-      </c>
-      <c r="K41" s="17">
-        <f t="shared" si="5"/>
-        <v>1090</v>
-      </c>
-      <c r="L41" s="17">
-        <v>1180</v>
-      </c>
-      <c r="M41" s="17">
-        <f t="shared" si="4"/>
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="17">
-        <v>19</v>
-      </c>
-      <c r="J42" s="17">
-        <f t="shared" si="3"/>
-        <v>8.6757990867579904E-2</v>
-      </c>
-      <c r="K42" s="17">
-        <f t="shared" si="5"/>
-        <v>1095</v>
-      </c>
-      <c r="L42" s="17">
-        <v>1190</v>
-      </c>
-      <c r="M42" s="17">
-        <f t="shared" si="4"/>
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+    </row>
+    <row r="21" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
+      <c r="N21" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+    </row>
+    <row r="22" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+    </row>
+    <row r="23" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+    </row>
+    <row r="24" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+    </row>
+    <row r="25" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+    </row>
+    <row r="26" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+    </row>
+    <row r="27" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+    </row>
+    <row r="28" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+    </row>
+    <row r="29" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+    </row>
+    <row r="30" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+    </row>
+    <row r="31" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+    </row>
+    <row r="32" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+    </row>
+    <row r="33" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="42"/>
+    </row>
+    <row r="34" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="42"/>
+    </row>
+    <row r="35" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="42"/>
+    </row>
+    <row r="36" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="42"/>
+    </row>
+    <row r="37" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="42"/>
+    </row>
+    <row r="38" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="42"/>
+    </row>
+    <row r="39" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="42"/>
+    </row>
+    <row r="40" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="42"/>
+    </row>
+    <row r="41" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="42"/>
+    </row>
+    <row r="42" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="42"/>
+    </row>
+    <row r="43" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="44"/>
       <c r="F43" s="44"/>
       <c r="G43" s="44"/>
       <c r="H43" s="44"/>
-      <c r="I43" s="17">
-        <v>20</v>
-      </c>
-      <c r="J43" s="17">
-        <f t="shared" si="3"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="K43" s="17">
-        <f t="shared" si="5"/>
-        <v>1100</v>
-      </c>
-      <c r="L43" s="17">
-        <v>1200</v>
-      </c>
-      <c r="M43" s="17">
-        <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="45"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G1:Y10"/>
-    <mergeCell ref="Q11:Y28"/>
-    <mergeCell ref="A1:F11"/>
-    <mergeCell ref="A21:H43"/>
+  <mergeCells count="3">
+    <mergeCell ref="D1:U10"/>
+    <mergeCell ref="N21:U43"/>
+    <mergeCell ref="D21:L43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4374,8 +5353,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4383,9 +5362,9 @@
     <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.75" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="34.125" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="33.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="34.125" style="32" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="18.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.125" customWidth="1"/>
   </cols>
@@ -4395,7 +5374,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>16</v>
@@ -4406,68 +5385,68 @@
       <c r="E1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="H1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="63" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="23" t="s">
-        <v>76</v>
+      <c r="N2" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>55</v>
@@ -4478,43 +5457,43 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>1</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>77</v>
+      <c r="K3" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>57</v>
@@ -4525,43 +5504,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="J4" s="22">
+      <c r="G4" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="21">
         <v>2</v>
       </c>
-      <c r="K4" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>124</v>
+      <c r="K4" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>62</v>
@@ -4572,43 +5551,43 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="F5" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>3</v>
       </c>
-      <c r="K5" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="22" t="s">
+      <c r="K5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>63</v>
@@ -4619,43 +5598,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="G6" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="49" t="s">
+      <c r="H6" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="49" t="s">
+      <c r="I6" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>4</v>
       </c>
-      <c r="K6" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>78</v>
+      <c r="K6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="O6" s="13" t="s">
         <v>64</v>
@@ -4666,43 +5645,43 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="49" t="s">
+      <c r="H7" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>5</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>79</v>
+      <c r="K7" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>59</v>
@@ -4716,24 +5695,24 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="22">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="21">
         <v>6</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
@@ -4744,15 +5723,15 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
@@ -4762,15 +5741,15 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
@@ -4780,15 +5759,15 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
@@ -4798,15 +5777,15 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
@@ -4816,10 +5795,10 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
     </row>
@@ -4831,10 +5810,10 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
@@ -4846,10 +5825,10 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
@@ -4861,10 +5840,10 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
@@ -4876,10 +5855,10 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
@@ -4891,10 +5870,10 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
@@ -4906,10 +5885,10 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
@@ -4921,10 +5900,10 @@
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
@@ -4936,10 +5915,10 @@
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
@@ -4951,10 +5930,10 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
@@ -4964,10 +5943,10 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
@@ -4977,10 +5956,10 @@
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
@@ -4990,10 +5969,10 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
@@ -5003,10 +5982,10 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5044,19 +6023,19 @@
         <v>16</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>26</v>
@@ -5089,10 +6068,10 @@
         <v>21</v>
       </c>
       <c r="R1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>22</v>
@@ -5153,7 +6132,7 @@
       <c r="F2" s="13">
         <v>1</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>1</v>
       </c>
       <c r="H2" s="13">
@@ -5189,15 +6168,15 @@
       <c r="R2" s="13">
         <v>0</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="23">
         <v>2</v>
       </c>
       <c r="T2" s="15">
-        <f>O2/(O2+战斗公式!$A$19)</f>
+        <f>O2/(O2+战斗公式!$D$19)</f>
         <v>0.2</v>
       </c>
       <c r="U2" s="15">
-        <f>P2/(P2+战斗公式!$A$19)</f>
+        <f>P2/(P2+战斗公式!$D$19)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="V2" s="11">
@@ -5208,32 +6187,32 @@
         <f>MAX(M2*($Q2/(1-$U2)),N2*($Q2/(1-$U2)))</f>
         <v>259200</v>
       </c>
-      <c r="X2" s="18">
-        <f>M2+H2*战斗公式!$B$19</f>
+      <c r="X2" s="17">
+        <f>M2+H2*战斗公式!$E$19</f>
         <v>270</v>
       </c>
-      <c r="Y2" s="18">
-        <f>N2+I2*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="18">
-        <f>O2+J2*战斗公式!$B$19</f>
+      <c r="Y2" s="17">
+        <f>N2+I2*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="17">
+        <f>O2+J2*战斗公式!$E$19</f>
         <v>245</v>
       </c>
-      <c r="AA2" s="18">
-        <f>P2+K2*战斗公式!$B$19</f>
+      <c r="AA2" s="17">
+        <f>P2+K2*战斗公式!$E$19</f>
         <v>100</v>
       </c>
-      <c r="AB2" s="18">
-        <f>Q2+L2*战斗公式!$B$19</f>
+      <c r="AB2" s="17">
+        <f>Q2+L2*战斗公式!$E$19</f>
         <v>2700</v>
       </c>
       <c r="AC2" s="15">
-        <f>Z2/(Z2+战斗公式!$A$19)</f>
+        <f>Z2/(Z2+战斗公式!$D$19)</f>
         <v>0.32885906040268459</v>
       </c>
       <c r="AD2" s="15">
-        <f>AA2/(AA2+战斗公式!$A$19)</f>
+        <f>AA2/(AA2+战斗公式!$D$19)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="AE2" s="11">
@@ -5268,11 +6247,11 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="15">
-        <f>O3/(O3+战斗公式!$A$19)</f>
+        <f>O3/(O3+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U3" s="15">
-        <f>P3/(P3+战斗公式!$A$19)</f>
+        <f>P3/(P3+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V3" s="11">
@@ -5283,32 +6262,32 @@
         <f t="shared" ref="W3:W21" si="1">MAX(M3*($Q3/(1-$U3)),N3*($Q3/(1-$U3)))</f>
         <v>0</v>
       </c>
-      <c r="X3" s="18">
-        <f>M3+H3*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="18">
-        <f>N3+I3*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="18">
-        <f>O3+J3*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="18">
-        <f>P3+K3*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="18">
-        <f>Q3+L3*战斗公式!$B$19</f>
+      <c r="X3" s="17">
+        <f>M3+H3*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="17">
+        <f>N3+I3*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="17">
+        <f>O3+J3*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="17">
+        <f>P3+K3*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="17">
+        <f>Q3+L3*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC3" s="15">
-        <f>Z3/(Z3+战斗公式!$A$19)</f>
+        <f>Z3/(Z3+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD3" s="15">
-        <f>AA3/(AA3+战斗公式!$A$19)</f>
+        <f>AA3/(AA3+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="11">
@@ -5343,11 +6322,11 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="15">
-        <f>O4/(O4+战斗公式!$A$19)</f>
+        <f>O4/(O4+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U4" s="15">
-        <f>P4/(P4+战斗公式!$A$19)</f>
+        <f>P4/(P4+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V4" s="11">
@@ -5358,32 +6337,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X4" s="18">
-        <f>M4+H4*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="18">
-        <f>N4+I4*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="18">
-        <f>O4+J4*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="18">
-        <f>P4+K4*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="18">
-        <f>Q4+L4*战斗公式!$B$19</f>
+      <c r="X4" s="17">
+        <f>M4+H4*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="17">
+        <f>N4+I4*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="17">
+        <f>O4+J4*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="17">
+        <f>P4+K4*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="17">
+        <f>Q4+L4*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC4" s="15">
-        <f>Z4/(Z4+战斗公式!$A$19)</f>
+        <f>Z4/(Z4+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="15">
-        <f>AA4/(AA4+战斗公式!$A$19)</f>
+        <f>AA4/(AA4+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="11">
@@ -5418,11 +6397,11 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="15">
-        <f>O5/(O5+战斗公式!$A$19)</f>
+        <f>O5/(O5+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U5" s="15">
-        <f>P5/(P5+战斗公式!$A$19)</f>
+        <f>P5/(P5+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V5" s="11">
@@ -5433,32 +6412,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X5" s="18">
-        <f>M5+H5*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="18">
-        <f>N5+I5*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="18">
-        <f>O5+J5*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="18">
-        <f>P5+K5*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="18">
-        <f>Q5+L5*战斗公式!$B$19</f>
+      <c r="X5" s="17">
+        <f>M5+H5*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="17">
+        <f>N5+I5*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="17">
+        <f>O5+J5*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="17">
+        <f>P5+K5*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="17">
+        <f>Q5+L5*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC5" s="15">
-        <f>Z5/(Z5+战斗公式!$A$19)</f>
+        <f>Z5/(Z5+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD5" s="15">
-        <f>AA5/(AA5+战斗公式!$A$19)</f>
+        <f>AA5/(AA5+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="11">
@@ -5493,11 +6472,11 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="15">
-        <f>O6/(O6+战斗公式!$A$19)</f>
+        <f>O6/(O6+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U6" s="15">
-        <f>P6/(P6+战斗公式!$A$19)</f>
+        <f>P6/(P6+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V6" s="11">
@@ -5508,32 +6487,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X6" s="18">
-        <f>M6+H6*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="18">
-        <f>N6+I6*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="18">
-        <f>O6+J6*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="18">
-        <f>P6+K6*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="18">
-        <f>Q6+L6*战斗公式!$B$19</f>
+      <c r="X6" s="17">
+        <f>M6+H6*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="17">
+        <f>N6+I6*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="17">
+        <f>O6+J6*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="17">
+        <f>P6+K6*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="17">
+        <f>Q6+L6*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC6" s="15">
-        <f>Z6/(Z6+战斗公式!$A$19)</f>
+        <f>Z6/(Z6+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD6" s="15">
-        <f>AA6/(AA6+战斗公式!$A$19)</f>
+        <f>AA6/(AA6+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="11">
@@ -5568,11 +6547,11 @@
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="15">
-        <f>O7/(O7+战斗公式!$A$19)</f>
+        <f>O7/(O7+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U7" s="15">
-        <f>P7/(P7+战斗公式!$A$19)</f>
+        <f>P7/(P7+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V7" s="11">
@@ -5583,32 +6562,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X7" s="18">
-        <f>M7+H7*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="18">
-        <f>N7+I7*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18">
-        <f>O7+J7*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18">
-        <f>P7+K7*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="18">
-        <f>Q7+L7*战斗公式!$B$19</f>
+      <c r="X7" s="17">
+        <f>M7+H7*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="17">
+        <f>N7+I7*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="17">
+        <f>O7+J7*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="17">
+        <f>P7+K7*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="17">
+        <f>Q7+L7*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC7" s="15">
-        <f>Z7/(Z7+战斗公式!$A$19)</f>
+        <f>Z7/(Z7+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD7" s="15">
-        <f>AA7/(AA7+战斗公式!$A$19)</f>
+        <f>AA7/(AA7+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE7" s="11">
@@ -5643,11 +6622,11 @@
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="15">
-        <f>O8/(O8+战斗公式!$A$19)</f>
+        <f>O8/(O8+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U8" s="15">
-        <f>P8/(P8+战斗公式!$A$19)</f>
+        <f>P8/(P8+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V8" s="11">
@@ -5658,32 +6637,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X8" s="18">
-        <f>M8+H8*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="18">
-        <f>N8+I8*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="18">
-        <f>O8+J8*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="18">
-        <f>P8+K8*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="18">
-        <f>Q8+L8*战斗公式!$B$19</f>
+      <c r="X8" s="17">
+        <f>M8+H8*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="17">
+        <f>N8+I8*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="17">
+        <f>O8+J8*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="17">
+        <f>P8+K8*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17">
+        <f>Q8+L8*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC8" s="15">
-        <f>Z8/(Z8+战斗公式!$A$19)</f>
+        <f>Z8/(Z8+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD8" s="15">
-        <f>AA8/(AA8+战斗公式!$A$19)</f>
+        <f>AA8/(AA8+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="11">
@@ -5718,11 +6697,11 @@
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="15">
-        <f>O9/(O9+战斗公式!$A$19)</f>
+        <f>O9/(O9+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U9" s="15">
-        <f>P9/(P9+战斗公式!$A$19)</f>
+        <f>P9/(P9+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V9" s="11">
@@ -5733,32 +6712,32 @@
         <f>MAX(M9*($Q9/(1-$U9)),N9*($Q9/(1-$U9)))</f>
         <v>0</v>
       </c>
-      <c r="X9" s="18">
-        <f>M9+H9*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="18">
-        <f>N9+I9*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="18">
-        <f>O9+J9*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="18">
-        <f>P9+K9*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="18">
-        <f>Q9+L9*战斗公式!$B$19</f>
+      <c r="X9" s="17">
+        <f>M9+H9*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="17">
+        <f>N9+I9*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="17">
+        <f>O9+J9*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="17">
+        <f>P9+K9*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="17">
+        <f>Q9+L9*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC9" s="15">
-        <f>Z9/(Z9+战斗公式!$A$19)</f>
+        <f>Z9/(Z9+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD9" s="15">
-        <f>AA9/(AA9+战斗公式!$A$19)</f>
+        <f>AA9/(AA9+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="11">
@@ -5793,11 +6772,11 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="15">
-        <f>O10/(O10+战斗公式!$A$19)</f>
+        <f>O10/(O10+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U10" s="15">
-        <f>P10/(P10+战斗公式!$A$19)</f>
+        <f>P10/(P10+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V10" s="11">
@@ -5808,32 +6787,32 @@
         <f>MAX(M10*($Q10/(1-$U10)),N10*($Q10/(1-$U10)))</f>
         <v>0</v>
       </c>
-      <c r="X10" s="18">
-        <f>M10+H10*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="18">
-        <f>N10+I10*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="18">
-        <f>O10+J10*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="18">
-        <f>P10+K10*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="18">
-        <f>Q10+L10*战斗公式!$B$19</f>
+      <c r="X10" s="17">
+        <f>M10+H10*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="17">
+        <f>N10+I10*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="17">
+        <f>O10+J10*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="17">
+        <f>P10+K10*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="17">
+        <f>Q10+L10*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC10" s="15">
-        <f>Z10/(Z10+战斗公式!$A$19)</f>
+        <f>Z10/(Z10+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD10" s="15">
-        <f>AA10/(AA10+战斗公式!$A$19)</f>
+        <f>AA10/(AA10+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE10" s="11">
@@ -5868,11 +6847,11 @@
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="15">
-        <f>O11/(O11+战斗公式!$A$19)</f>
+        <f>O11/(O11+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U11" s="15">
-        <f>P11/(P11+战斗公式!$A$19)</f>
+        <f>P11/(P11+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V11" s="11">
@@ -5883,32 +6862,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X11" s="18">
-        <f>M11+H11*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="18">
-        <f>N11+I11*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="18">
-        <f>O11+J11*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="18">
-        <f>P11+K11*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="18">
-        <f>Q11+L11*战斗公式!$B$19</f>
+      <c r="X11" s="17">
+        <f>M11+H11*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="17">
+        <f>N11+I11*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="17">
+        <f>O11+J11*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="17">
+        <f>P11+K11*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="17">
+        <f>Q11+L11*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC11" s="15">
-        <f>Z11/(Z11+战斗公式!$A$19)</f>
+        <f>Z11/(Z11+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD11" s="15">
-        <f>AA11/(AA11+战斗公式!$A$19)</f>
+        <f>AA11/(AA11+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE11" s="11">
@@ -5943,11 +6922,11 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="15">
-        <f>O12/(O12+战斗公式!$A$19)</f>
+        <f>O12/(O12+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U12" s="15">
-        <f>P12/(P12+战斗公式!$A$19)</f>
+        <f>P12/(P12+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V12" s="11">
@@ -5958,32 +6937,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X12" s="18">
-        <f>M12+H12*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="18">
-        <f>N12+I12*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="18">
-        <f>O12+J12*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="18">
-        <f>P12+K12*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="18">
-        <f>Q12+L12*战斗公式!$B$19</f>
+      <c r="X12" s="17">
+        <f>M12+H12*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="17">
+        <f>N12+I12*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="17">
+        <f>O12+J12*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="17">
+        <f>P12+K12*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="17">
+        <f>Q12+L12*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC12" s="15">
-        <f>Z12/(Z12+战斗公式!$A$19)</f>
+        <f>Z12/(Z12+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD12" s="15">
-        <f>AA12/(AA12+战斗公式!$A$19)</f>
+        <f>AA12/(AA12+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE12" s="11">
@@ -6018,11 +6997,11 @@
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="15">
-        <f>O13/(O13+战斗公式!$A$19)</f>
+        <f>O13/(O13+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U13" s="15">
-        <f>P13/(P13+战斗公式!$A$19)</f>
+        <f>P13/(P13+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V13" s="11">
@@ -6033,32 +7012,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X13" s="18">
-        <f>M13+H13*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="18">
-        <f>N13+I13*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="18">
-        <f>O13+J13*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="18">
-        <f>P13+K13*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="18">
-        <f>Q13+L13*战斗公式!$B$19</f>
+      <c r="X13" s="17">
+        <f>M13+H13*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="17">
+        <f>N13+I13*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="17">
+        <f>O13+J13*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="17">
+        <f>P13+K13*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="17">
+        <f>Q13+L13*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC13" s="15">
-        <f>Z13/(Z13+战斗公式!$A$19)</f>
+        <f>Z13/(Z13+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD13" s="15">
-        <f>AA13/(AA13+战斗公式!$A$19)</f>
+        <f>AA13/(AA13+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE13" s="11">
@@ -6093,11 +7072,11 @@
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="15">
-        <f>O14/(O14+战斗公式!$A$19)</f>
+        <f>O14/(O14+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U14" s="15">
-        <f>P14/(P14+战斗公式!$A$19)</f>
+        <f>P14/(P14+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V14" s="11">
@@ -6108,32 +7087,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X14" s="18">
-        <f>M14+H14*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="18">
-        <f>N14+I14*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="18">
-        <f>O14+J14*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="18">
-        <f>P14+K14*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="18">
-        <f>Q14+L14*战斗公式!$B$19</f>
+      <c r="X14" s="17">
+        <f>M14+H14*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="17">
+        <f>N14+I14*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="17">
+        <f>O14+J14*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="17">
+        <f>P14+K14*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="17">
+        <f>Q14+L14*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC14" s="15">
-        <f>Z14/(Z14+战斗公式!$A$19)</f>
+        <f>Z14/(Z14+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD14" s="15">
-        <f>AA14/(AA14+战斗公式!$A$19)</f>
+        <f>AA14/(AA14+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE14" s="11">
@@ -6168,11 +7147,11 @@
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="15">
-        <f>O15/(O15+战斗公式!$A$19)</f>
+        <f>O15/(O15+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U15" s="15">
-        <f>P15/(P15+战斗公式!$A$19)</f>
+        <f>P15/(P15+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V15" s="11">
@@ -6183,32 +7162,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X15" s="18">
-        <f>M15+H15*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="18">
-        <f>N15+I15*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="18">
-        <f>O15+J15*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="18">
-        <f>P15+K15*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="18">
-        <f>Q15+L15*战斗公式!$B$19</f>
+      <c r="X15" s="17">
+        <f>M15+H15*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="17">
+        <f>N15+I15*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="17">
+        <f>O15+J15*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="17">
+        <f>P15+K15*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="17">
+        <f>Q15+L15*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC15" s="15">
-        <f>Z15/(Z15+战斗公式!$A$19)</f>
+        <f>Z15/(Z15+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD15" s="15">
-        <f>AA15/(AA15+战斗公式!$A$19)</f>
+        <f>AA15/(AA15+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE15" s="11">
@@ -6243,11 +7222,11 @@
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="15">
-        <f>O16/(O16+战斗公式!$A$19)</f>
+        <f>O16/(O16+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U16" s="15">
-        <f>P16/(P16+战斗公式!$A$19)</f>
+        <f>P16/(P16+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V16" s="11">
@@ -6258,32 +7237,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X16" s="18">
-        <f>M16+H16*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="18">
-        <f>N16+I16*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="18">
-        <f>O16+J16*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="18">
-        <f>P16+K16*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="18">
-        <f>Q16+L16*战斗公式!$B$19</f>
+      <c r="X16" s="17">
+        <f>M16+H16*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="17">
+        <f>N16+I16*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="17">
+        <f>O16+J16*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="17">
+        <f>P16+K16*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="17">
+        <f>Q16+L16*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC16" s="15">
-        <f>Z16/(Z16+战斗公式!$A$19)</f>
+        <f>Z16/(Z16+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD16" s="15">
-        <f>AA16/(AA16+战斗公式!$A$19)</f>
+        <f>AA16/(AA16+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE16" s="11">
@@ -6318,11 +7297,11 @@
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
       <c r="T17" s="15">
-        <f>O17/(O17+战斗公式!$A$19)</f>
+        <f>O17/(O17+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U17" s="15">
-        <f>P17/(P17+战斗公式!$A$19)</f>
+        <f>P17/(P17+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V17" s="11">
@@ -6333,32 +7312,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X17" s="18">
-        <f>M17+H17*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="18">
-        <f>N17+I17*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="18">
-        <f>O17+J17*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="18">
-        <f>P17+K17*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="18">
-        <f>Q17+L17*战斗公式!$B$19</f>
+      <c r="X17" s="17">
+        <f>M17+H17*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="17">
+        <f>N17+I17*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="17">
+        <f>O17+J17*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="17">
+        <f>P17+K17*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="17">
+        <f>Q17+L17*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC17" s="15">
-        <f>Z17/(Z17+战斗公式!$A$19)</f>
+        <f>Z17/(Z17+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD17" s="15">
-        <f>AA17/(AA17+战斗公式!$A$19)</f>
+        <f>AA17/(AA17+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE17" s="11">
@@ -6393,11 +7372,11 @@
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="15">
-        <f>O18/(O18+战斗公式!$A$19)</f>
+        <f>O18/(O18+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U18" s="15">
-        <f>P18/(P18+战斗公式!$A$19)</f>
+        <f>P18/(P18+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V18" s="11">
@@ -6408,32 +7387,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X18" s="18">
-        <f>M18+H18*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="18">
-        <f>N18+I18*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="18">
-        <f>O18+J18*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="18">
-        <f>P18+K18*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="18">
-        <f>Q18+L18*战斗公式!$B$19</f>
+      <c r="X18" s="17">
+        <f>M18+H18*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="17">
+        <f>N18+I18*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="17">
+        <f>O18+J18*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="17">
+        <f>P18+K18*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="17">
+        <f>Q18+L18*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC18" s="15">
-        <f>Z18/(Z18+战斗公式!$A$19)</f>
+        <f>Z18/(Z18+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD18" s="15">
-        <f>AA18/(AA18+战斗公式!$A$19)</f>
+        <f>AA18/(AA18+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE18" s="11">
@@ -6468,11 +7447,11 @@
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="15">
-        <f>O19/(O19+战斗公式!$A$19)</f>
+        <f>O19/(O19+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U19" s="15">
-        <f>P19/(P19+战斗公式!$A$19)</f>
+        <f>P19/(P19+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V19" s="11">
@@ -6483,32 +7462,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X19" s="18">
-        <f>M19+H19*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="18">
-        <f>N19+I19*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="18">
-        <f>O19+J19*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="18">
-        <f>P19+K19*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="18">
-        <f>Q19+L19*战斗公式!$B$19</f>
+      <c r="X19" s="17">
+        <f>M19+H19*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="17">
+        <f>N19+I19*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="17">
+        <f>O19+J19*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="17">
+        <f>P19+K19*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="17">
+        <f>Q19+L19*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC19" s="15">
-        <f>Z19/(Z19+战斗公式!$A$19)</f>
+        <f>Z19/(Z19+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD19" s="15">
-        <f>AA19/(AA19+战斗公式!$A$19)</f>
+        <f>AA19/(AA19+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE19" s="11">
@@ -6543,11 +7522,11 @@
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="15">
-        <f>O20/(O20+战斗公式!$A$19)</f>
+        <f>O20/(O20+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U20" s="15">
-        <f>P20/(P20+战斗公式!$A$19)</f>
+        <f>P20/(P20+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V20" s="11">
@@ -6558,32 +7537,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X20" s="18">
-        <f>M20+H20*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="18">
-        <f>N20+I20*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="18">
-        <f>O20+J20*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="18">
-        <f>P20+K20*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="18">
-        <f>Q20+L20*战斗公式!$B$19</f>
+      <c r="X20" s="17">
+        <f>M20+H20*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="17">
+        <f>N20+I20*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="17">
+        <f>O20+J20*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="17">
+        <f>P20+K20*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="17">
+        <f>Q20+L20*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC20" s="15">
-        <f>Z20/(Z20+战斗公式!$A$19)</f>
+        <f>Z20/(Z20+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD20" s="15">
-        <f>AA20/(AA20+战斗公式!$A$19)</f>
+        <f>AA20/(AA20+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE20" s="11">
@@ -6618,11 +7597,11 @@
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="15">
-        <f>O21/(O21+战斗公式!$A$19)</f>
+        <f>O21/(O21+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="U21" s="15">
-        <f>P21/(P21+战斗公式!$A$19)</f>
+        <f>P21/(P21+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="V21" s="11">
@@ -6633,32 +7612,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X21" s="18">
-        <f>M21+H21*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="18">
-        <f>N21+I21*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="18">
-        <f>O21+J21*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="18">
-        <f>P21+K21*战斗公式!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="18">
-        <f>Q21+L21*战斗公式!$B$19</f>
+      <c r="X21" s="17">
+        <f>M21+H21*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="17">
+        <f>N21+I21*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="17">
+        <f>O21+J21*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="17">
+        <f>P21+K21*战斗公式!$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="17">
+        <f>Q21+L21*战斗公式!$E$19</f>
         <v>0</v>
       </c>
       <c r="AC21" s="15">
-        <f>Z21/(Z21+战斗公式!$A$19)</f>
+        <f>Z21/(Z21+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AD21" s="15">
-        <f>AA21/(AA21+战斗公式!$A$19)</f>
+        <f>AA21/(AA21+战斗公式!$D$19)</f>
         <v>0</v>
       </c>
       <c r="AE21" s="11">
@@ -6679,7 +7658,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>战斗公式!$J$13:$J$17</xm:f>
+            <xm:f>战斗公式!$M$13:$M$17</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -6711,7 +7690,7 @@
       <c r="A1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="20">
+      <c r="B1" s="19">
         <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
@@ -6729,40 +7708,40 @@
       <c r="H1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
+      <c r="O1" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>30</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="19">
-        <f>B2*战斗公式!$C$19</f>
+      <c r="B3" s="18">
+        <f>B2*战斗公式!$F$19</f>
         <v>150</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -6792,96 +7771,96 @@
       <c r="L3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B4" s="16"/>
-      <c r="D4" s="19">
-        <f ca="1">$D$2*战斗公式!B$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!B$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!B$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!B$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!B$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!X$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
+      <c r="D4" s="18">
+        <f ca="1">$D$2*战斗公式!E$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!E$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!E$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!E$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!E$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!X$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
         <v>270</v>
       </c>
-      <c r="E4" s="19">
-        <f ca="1">$D$2*战斗公式!C$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!C$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!C$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!C$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!C$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!Y$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
-        <f ca="1">$D$2*战斗公式!D$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!D$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!D$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!D$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!D$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!Z$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
+      <c r="E4" s="18">
+        <f ca="1">$D$2*战斗公式!F$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!F$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!F$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!F$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!F$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!Y$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <f ca="1">$D$2*战斗公式!G$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!G$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!G$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!G$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!G$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!Z$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
         <v>245</v>
       </c>
-      <c r="G4" s="19">
-        <f ca="1">$D$2*战斗公式!E$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!E$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!E$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!E$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!E$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!AA$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
+      <c r="G4" s="18">
+        <f ca="1">$D$2*战斗公式!H$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!H$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!H$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!H$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!H$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!AA$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
         <v>100</v>
       </c>
-      <c r="H4" s="19">
-        <f ca="1">$D$2*战斗公式!F$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!F$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!F$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!F$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!F$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!AB$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
+      <c r="H4" s="18">
+        <f ca="1">$D$2*战斗公式!I$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!I$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!I$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!I$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!I$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!AB$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
         <v>2700</v>
       </c>
       <c r="I4" s="15">
-        <f ca="1">F4/(F4+战斗公式!$A$19)</f>
+        <f ca="1">F4/(F4+战斗公式!$D$19)</f>
         <v>0.32885906040268459</v>
       </c>
       <c r="J4" s="15">
-        <f ca="1">G4/(G4+战斗公式!$A$19)</f>
+        <f ca="1">G4/(G4+战斗公式!$D$19)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <f ca="1">$H$4/(1-I$4)</f>
         <v>4023.0000000000005</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <f ca="1">$H$4/(1-J$4)</f>
         <v>3240</v>
       </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B5" s="16"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B6" s="16"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B7" s="16"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B8" s="16"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C9" s="16"/>
@@ -6890,12 +7869,12 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C12" s="16"/>
@@ -6938,46 +7917,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="G1" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="L1" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="L1" s="27" t="s">
+      <c r="N1" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>98</v>
       </c>
       <c r="T1" s="16">
         <v>18</v>
@@ -6988,165 +7967,165 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="25">
+        <v>90</v>
+      </c>
+      <c r="F2" s="25">
+        <v>150</v>
+      </c>
+      <c r="G2" s="25">
+        <v>75</v>
+      </c>
+      <c r="H2" s="24">
+        <v>36</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="L2" s="24">
+        <v>0</v>
+      </c>
+      <c r="M2" s="28">
+        <v>1</v>
+      </c>
+      <c r="N2" s="25"/>
+      <c r="O2" s="24">
+        <v>1</v>
+      </c>
+      <c r="P2" s="24">
+        <v>2</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="E2" s="26">
+      <c r="C3" s="24">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="25">
         <v>90</v>
       </c>
-      <c r="F2" s="26">
-        <v>150</v>
-      </c>
-      <c r="G2" s="26">
-        <v>75</v>
-      </c>
-      <c r="H2" s="25">
-        <v>36</v>
-      </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="L2" s="25">
-        <v>0</v>
-      </c>
-      <c r="M2" s="29">
-        <v>1</v>
-      </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="25">
-        <v>1</v>
-      </c>
-      <c r="P2" s="25">
-        <v>2</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="25">
-        <v>2</v>
-      </c>
-      <c r="D3" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="E3" s="26">
-        <v>90</v>
-      </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <f>$F$2*(D3/$D$2)</f>
         <v>250</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <f>$G$2*(D3/$D$2)</f>
         <v>125</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <v>72</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="L3" s="25">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="L3" s="24">
         <v>1</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="29">
         <f>M2+N3</f>
         <v>1.2</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <v>0.2</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="24">
         <v>1</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="24">
         <v>2</v>
       </c>
-      <c r="R3" s="25">
+      <c r="R3" s="24">
         <v>1</v>
       </c>
-      <c r="S3" s="26">
+      <c r="S3" s="25">
         <v>2</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="24">
         <f>S3*$T$1</f>
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="25">
+      <c r="B4" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="24">
         <v>3</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>4</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>90</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <f t="shared" ref="F4:F6" si="0">$F$2*(D4/$D$2)</f>
         <v>400</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <f t="shared" ref="G4:G6" si="1">$G$2*(D4/$D$2)</f>
         <v>200</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <v>108</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="L4" s="27">
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="L4" s="26">
         <v>2</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="29">
         <f t="shared" ref="M4:M12" si="2">M3+N4</f>
         <v>1.5</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <v>0.3</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="24">
         <v>1</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="24">
         <v>2</v>
       </c>
       <c r="Q4" s="10">
         <v>1</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="24">
         <v>2</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="25">
         <v>4</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="24">
         <f t="shared" ref="T4:T7" si="3">S4*$T$1</f>
         <v>72</v>
       </c>
@@ -7156,60 +8135,60 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="B5" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="24">
         <v>4</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>6</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>90</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <v>144</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="L5" s="28">
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="L5" s="27">
         <v>3</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="29">
         <f t="shared" si="2"/>
         <v>1.9</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <v>0.4</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="24">
         <v>2</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="24">
         <v>3</v>
       </c>
       <c r="Q5" s="10">
         <v>2</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="24">
         <v>3</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="25">
         <v>12</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5" s="24">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
@@ -7219,60 +8198,60 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="B6" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="24">
         <v>5</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>8</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>90</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <v>216</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="L6" s="27">
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="L6" s="26">
         <v>4</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="29">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <v>0.6</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="24">
         <v>2</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="24">
         <v>3</v>
       </c>
       <c r="Q6" s="10">
         <v>3</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="24">
         <v>4</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="25">
         <v>36</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6" s="24">
         <f t="shared" si="3"/>
         <v>648</v>
       </c>
@@ -7282,44 +8261,44 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="L7" s="28">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="L7" s="27">
         <v>5</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="29">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <v>0.7</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="24">
         <v>3</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="24">
         <v>4</v>
       </c>
       <c r="Q7" s="10">
         <v>4</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="24">
         <v>5</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="25">
         <v>54</v>
       </c>
-      <c r="T7" s="25">
+      <c r="T7" s="24">
         <f t="shared" si="3"/>
         <v>972</v>
       </c>
@@ -7329,42 +8308,42 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="L8" s="27">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="L8" s="26">
         <v>6</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="29">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="25">
         <v>0.8</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="24">
         <v>3</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="24">
         <v>4</v>
       </c>
       <c r="Q8" s="10">
         <v>5</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="24">
         <v>6</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="25">
         <v>81</v>
       </c>
-      <c r="T8" s="25">
+      <c r="T8" s="24">
         <f t="shared" ref="T8" si="5">S8*$T$1</f>
         <v>1458</v>
       </c>
@@ -7374,83 +8353,83 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L9" s="25">
+      <c r="L9" s="24">
         <v>7</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="29">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="25">
         <v>1</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="24">
         <v>4</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="24">
         <v>5</v>
       </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L10" s="27">
+      <c r="L10" s="26">
         <v>8</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="29">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="25">
         <v>1</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="24">
         <v>4</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="24">
         <v>5</v>
       </c>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L11" s="25">
+      <c r="L11" s="24">
         <v>9</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="29">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="25">
         <v>1</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="24">
         <v>5</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="24">
         <v>6</v>
       </c>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L12" s="27">
+      <c r="L12" s="26">
         <v>10</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="29">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="25">
         <v>1</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="24">
         <v>5</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="24">
         <v>6</v>
       </c>
     </row>

--- a/策划文档/数值策划/战斗系统.xlsx
+++ b/策划文档/数值策划/战斗系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="战斗公式" sheetId="1" r:id="rId1"/>
@@ -1322,6 +1322,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1355,15 +1364,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1389,8 +1389,8 @@
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12325350" cy="1685924"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1645,12 +1645,12 @@
                   <m:f>
                     <m:fPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1666,7 +1666,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1683,7 +1683,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1695,7 +1695,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1710,7 +1710,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1724,7 +1724,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -1921,12 +1921,12 @@
                   <m:f>
                     <m:fPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1942,7 +1942,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1959,7 +1959,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1971,7 +1971,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1986,7 +1986,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2000,7 +2000,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -2647,7 +2647,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -3782,361 +3782,361 @@
   </sheetPr>
   <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="30"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>170</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>172</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>174</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>176</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>196</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>197</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>204</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>205</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>192</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-    </row>
-    <row r="11" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+    </row>
+    <row r="11" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>198</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
@@ -4148,7 +4148,7 @@
       <c r="AA11" s="30"/>
       <c r="AB11" s="30"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>199</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="AA12" s="30"/>
       <c r="AB12" s="30"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>186</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="AA13" s="30"/>
       <c r="AB13" s="30"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>187</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="AA14" s="30"/>
       <c r="AB14" s="30"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>189</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="AA15" s="30"/>
       <c r="AB15" s="30"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>193</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="AA16" s="30"/>
       <c r="AB16" s="30"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>195</v>
       </c>
@@ -4510,7 +4510,7 @@
       <c r="AA17" s="30"/>
       <c r="AB17" s="30"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>194</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="AA18" s="30"/>
       <c r="AB18" s="30"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>202</v>
       </c>
@@ -4599,7 +4599,7 @@
       <c r="AA19" s="30"/>
       <c r="AB19" s="30"/>
     </row>
-    <row r="20" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
         <v>206</v>
       </c>
@@ -4624,34 +4624,34 @@
       <c r="AA20" s="30"/>
       <c r="AB20" s="30"/>
     </row>
-    <row r="21" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>208</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-      <c r="N21" s="37" t="s">
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="42"/>
+      <c r="N21" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="39"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="42"/>
       <c r="V21" s="30"/>
       <c r="W21" s="30"/>
       <c r="X21" s="30"/>
@@ -4660,31 +4660,31 @@
       <c r="AA21" s="30"/>
       <c r="AB21" s="30"/>
     </row>
-    <row r="22" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>209</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
       <c r="M22" s="34"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="42"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="45"/>
       <c r="V22" s="30"/>
       <c r="W22" s="30"/>
       <c r="X22" s="30"/>
@@ -4693,31 +4693,31 @@
       <c r="AA22" s="30"/>
       <c r="AB22" s="30"/>
     </row>
-    <row r="23" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>212</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="34"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="42"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="45"/>
       <c r="V23" s="30"/>
       <c r="W23" s="30"/>
       <c r="X23" s="30"/>
@@ -4726,31 +4726,31 @@
       <c r="AA23" s="30"/>
       <c r="AB23" s="30"/>
     </row>
-    <row r="24" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>214</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="34"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="42"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="45"/>
       <c r="V24" s="30"/>
       <c r="W24" s="30"/>
       <c r="X24" s="30"/>
@@ -4759,31 +4759,31 @@
       <c r="AA24" s="30"/>
       <c r="AB24" s="30"/>
     </row>
-    <row r="25" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>215</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="34"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="42"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="45"/>
       <c r="V25" s="30"/>
       <c r="W25" s="30"/>
       <c r="X25" s="30"/>
@@ -4792,31 +4792,31 @@
       <c r="AA25" s="30"/>
       <c r="AB25" s="30"/>
     </row>
-    <row r="26" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>218</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="34"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="45"/>
       <c r="V26" s="30"/>
       <c r="W26" s="30"/>
       <c r="X26" s="30"/>
@@ -4825,31 +4825,31 @@
       <c r="AA26" s="30"/>
       <c r="AB26" s="30"/>
     </row>
-    <row r="27" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
         <v>219</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="45"/>
       <c r="M27" s="34"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="42"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="45"/>
       <c r="V27" s="30"/>
       <c r="W27" s="30"/>
       <c r="X27" s="30"/>
@@ -4858,27 +4858,27 @@
       <c r="AA27" s="30"/>
       <c r="AB27" s="30"/>
     </row>
-    <row r="28" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
       <c r="M28" s="34"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="42"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="45"/>
       <c r="V28" s="30"/>
       <c r="W28" s="30"/>
       <c r="X28" s="30"/>
@@ -4887,27 +4887,27 @@
       <c r="AA28" s="30"/>
       <c r="AB28" s="30"/>
     </row>
-    <row r="29" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="34"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="45"/>
       <c r="V29" s="30"/>
       <c r="W29" s="30"/>
       <c r="X29" s="30"/>
@@ -4916,27 +4916,27 @@
       <c r="AA29" s="30"/>
       <c r="AB29" s="30"/>
     </row>
-    <row r="30" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="34"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="42"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="45"/>
       <c r="V30" s="30"/>
       <c r="W30" s="30"/>
       <c r="X30" s="30"/>
@@ -4945,27 +4945,27 @@
       <c r="AA30" s="30"/>
       <c r="AB30" s="30"/>
     </row>
-    <row r="31" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45"/>
       <c r="M31" s="34"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="42"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="45"/>
       <c r="V31" s="30"/>
       <c r="W31" s="30"/>
       <c r="X31" s="30"/>
@@ -4974,27 +4974,27 @@
       <c r="AA31" s="30"/>
       <c r="AB31" s="30"/>
     </row>
-    <row r="32" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45"/>
       <c r="M32" s="34"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="42"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="45"/>
       <c r="V32" s="30"/>
       <c r="W32" s="30"/>
       <c r="X32" s="30"/>
@@ -5003,249 +5003,249 @@
       <c r="AA32" s="30"/>
       <c r="AB32" s="30"/>
     </row>
-    <row r="33" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="42"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="45"/>
       <c r="M33" s="34"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="42"/>
-    </row>
-    <row r="34" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N33" s="43"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="45"/>
+    </row>
+    <row r="34" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
       <c r="M34" s="34"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="42"/>
-    </row>
-    <row r="35" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="45"/>
+    </row>
+    <row r="35" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="45"/>
       <c r="M35" s="34"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="42"/>
-    </row>
-    <row r="36" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N35" s="43"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="45"/>
+    </row>
+    <row r="36" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="45"/>
       <c r="M36" s="34"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="42"/>
-    </row>
-    <row r="37" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N36" s="43"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="45"/>
+    </row>
+    <row r="37" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
       <c r="M37" s="34"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="42"/>
-    </row>
-    <row r="38" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N37" s="43"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="45"/>
+    </row>
+    <row r="38" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="45"/>
       <c r="M38" s="34"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="42"/>
-    </row>
-    <row r="39" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N38" s="43"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="45"/>
+    </row>
+    <row r="39" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="45"/>
       <c r="M39" s="34"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="42"/>
-    </row>
-    <row r="40" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N39" s="43"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="45"/>
+    </row>
+    <row r="40" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="45"/>
       <c r="M40" s="34"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="42"/>
-    </row>
-    <row r="41" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N40" s="43"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="45"/>
+    </row>
+    <row r="41" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="45"/>
       <c r="M41" s="34"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="42"/>
-    </row>
-    <row r="42" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N41" s="43"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="45"/>
+    </row>
+    <row r="42" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="45"/>
       <c r="M42" s="34"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="42"/>
-    </row>
-    <row r="43" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="N42" s="43"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="45"/>
+    </row>
+    <row r="43" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="45"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="48"/>
       <c r="M43" s="34"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="45"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="N43" s="46"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="48"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -5254,7 +5254,7 @@
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -5263,7 +5263,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -5272,7 +5272,7 @@
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -5281,7 +5281,7 @@
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -5290,7 +5290,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -5299,7 +5299,7 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -5308,7 +5308,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -5317,7 +5317,7 @@
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
     </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -5326,7 +5326,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -5353,23 +5353,23 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.875" style="32" customWidth="1"/>
-    <col min="7" max="7" width="33.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="34.125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.125" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="34.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -5397,15 +5397,15 @@
       <c r="I1" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-    </row>
-    <row r="2" spans="1:15" ht="63" x14ac:dyDescent="0.15">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+    </row>
+    <row r="2" spans="1:15" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="63" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="47.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -5733,7 +5733,7 @@
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -5751,7 +5751,7 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5769,7 +5769,7 @@
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -5787,7 +5787,7 @@
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -5802,7 +5802,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -5817,7 +5817,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -5832,7 +5832,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -5847,7 +5847,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -5862,7 +5862,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -5877,7 +5877,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -5892,7 +5892,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -5922,7 +5922,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -5935,7 +5935,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -5948,7 +5948,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -5961,7 +5961,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -6005,17 +6005,17 @@
   <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="12" width="9" style="11"/>
-    <col min="13" max="13" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>874800</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -7679,14 +7679,14 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="9" style="10"/>
-    <col min="11" max="11" width="9.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>48</v>
       </c>
@@ -7708,16 +7708,16 @@
       <c r="H1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>49</v>
       </c>
@@ -7729,14 +7729,14 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>50</v>
       </c>
@@ -7771,14 +7771,14 @@
       <c r="L3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="D4" s="18">
         <f ca="1">$D$2*战斗公式!E$13*OFFSET(英雄设计!$C1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$E$2*战斗公式!E$14*OFFSET(英雄设计!$D1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$F$2*战斗公式!E$15*OFFSET(英雄设计!$E1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$G$2*战斗公式!E$16*OFFSET(英雄设计!$F1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+$H$2*战斗公式!E$17*OFFSET(英雄设计!$G1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)+OFFSET(英雄设计!X$1,MATCH($B$1,英雄设计!$A$2:$A$21,0),)</f>
@@ -7816,67 +7816,67 @@
         <f ca="1">$H$4/(1-J$4)</f>
         <v>3240</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -7902,7 +7902,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" customWidth="1"/>
@@ -7912,11 +7912,11 @@
     <col min="7" max="15" width="9" style="10"/>
     <col min="16" max="16" width="13" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9" style="10"/>
-    <col min="20" max="20" width="9.25" style="10" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" style="10" customWidth="1"/>
     <col min="21" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>98</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -8352,7 +8352,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L9" s="24">
         <v>7</v>
       </c>
@@ -8373,7 +8373,7 @@
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L10" s="26">
         <v>8</v>
       </c>
@@ -8394,7 +8394,7 @@
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L11" s="24">
         <v>9</v>
       </c>
@@ -8415,7 +8415,7 @@
       <c r="S11" s="24"/>
       <c r="T11" s="24"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L12" s="26">
         <v>10</v>
       </c>
